--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2382AC09-F1AA-4FD8-AAB8-C2E5FC26C5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6842DE8-1306-4E32-9A52-AFE3A646B0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="160">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -782,30 +782,6 @@
     <rPh sb="3" eb="5">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ObjectBase作成</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>csvファイル読み込みクラス作成</t>
-    <rPh sb="7" eb="8">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stateパターン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1521,7 +1497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1624,9 +1600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1675,13 +1648,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2679,7 +2658,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
-  <dimension ref="A2:J105"/>
+  <dimension ref="A2:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2695,61 +2674,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="34"/>
+      <c r="C4" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="36">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="38">
+        <v>12</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="35"/>
-      <c r="C4" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" s="37">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="39">
-        <v>4</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="37">
-        <v>29</v>
+      <c r="I5" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="36">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="33"/>
-      <c r="C6" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="31">
-        <v>2</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>129</v>
-      </c>
+      <c r="B6" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="I6" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J6" s="23">
         <v>20</v>
@@ -2758,1240 +2733,1205 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="33"/>
       <c r="C7" s="20" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="31">
-        <v>1</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>129</v>
+        <v>2</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="34"/>
-      <c r="C8" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="32">
-        <v>4</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>129</v>
+      <c r="B8" s="33"/>
+      <c r="C8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="31">
+        <v>3</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="53">
+        <v>45646</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="31">
-        <v>2</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>129</v>
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="51">
+        <v>45308</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="33"/>
       <c r="C11" s="20" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="53">
+        <v>45328</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="33"/>
-      <c r="C12" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="51">
-        <v>45646</v>
-      </c>
+      <c r="B12" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="33"/>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="J13" s="51">
-        <v>45308</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="33"/>
       <c r="C14" s="20" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" s="51">
-        <v>45328</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="33"/>
       <c r="C16" s="20" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="31">
         <v>1</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>129</v>
+      <c r="F16" s="31" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="33"/>
       <c r="C17" s="20" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="31">
         <v>1</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="33"/>
-      <c r="C18" s="20" t="s">
-        <v>28</v>
+      <c r="C18" s="47" t="s">
+        <v>159</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="33"/>
       <c r="C19" s="20" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="33"/>
       <c r="C20" s="20" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="33"/>
-      <c r="C21" s="48" t="s">
-        <v>162</v>
+      <c r="C21" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="33"/>
       <c r="C22" s="20" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="31">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="33"/>
       <c r="C23" s="20" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="31">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="33"/>
       <c r="C24" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="31">
-        <v>3</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>139</v>
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="33"/>
-      <c r="C25" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>129</v>
-      </c>
+      <c r="B25" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="33"/>
-      <c r="C26" s="20" t="s">
-        <v>26</v>
+      <c r="B26" s="28"/>
+      <c r="C26" s="47" t="s">
+        <v>155</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="31">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="33"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>129</v>
+        <v>6</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="31">
+        <v>1</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="28"/>
-      <c r="C29" s="48" t="s">
-        <v>158</v>
+      <c r="C29" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="31">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="28"/>
       <c r="C30" s="20" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="31">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="28"/>
       <c r="C31" s="20" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="28"/>
       <c r="C32" s="20" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="28"/>
       <c r="C33" s="20" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="31">
         <v>0.5</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="28"/>
-      <c r="C34" s="20" t="s">
-        <v>28</v>
+      <c r="C34" s="47" t="s">
+        <v>150</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="31">
         <v>0.5</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="28"/>
       <c r="C35" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="31">
         <v>0.5</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="28"/>
       <c r="C36" s="20" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="31">
         <v>0.5</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="28"/>
-      <c r="C37" s="48" t="s">
-        <v>153</v>
+      <c r="C37" s="47" t="s">
+        <v>92</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="31">
         <v>0.5</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="28"/>
-      <c r="C38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>129</v>
-      </c>
+      <c r="B38" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="28"/>
-      <c r="C39" s="20" t="s">
-        <v>160</v>
+      <c r="C39" s="46" t="s">
+        <v>137</v>
       </c>
       <c r="D39" s="20"/>
-      <c r="E39" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>129</v>
+      <c r="E39" s="30">
+        <v>1</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="28"/>
-      <c r="C40" s="48" t="s">
-        <v>92</v>
+      <c r="C40" s="46" t="s">
+        <v>139</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="31">
         <v>0.5</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="28"/>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="46" t="s">
         <v>140</v>
       </c>
       <c r="D42" s="20"/>
-      <c r="E42" s="30">
+      <c r="E42" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="29"/>
+      <c r="C43" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="32">
         <v>1</v>
       </c>
-      <c r="F42" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="28"/>
-      <c r="C43" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="31">
-        <v>0.5</v>
-      </c>
       <c r="F43" s="31" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="28"/>
-      <c r="C44" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>129</v>
-      </c>
+      <c r="B44" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="28"/>
-      <c r="C45" s="47" t="s">
-        <v>143</v>
+      <c r="C45" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="31">
+        <v>2</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="28"/>
+      <c r="C46" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="31">
+        <v>1</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="28"/>
+      <c r="C47" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="31">
+        <v>1</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="25"/>
+      <c r="C49" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="31">
         <v>0.5</v>
       </c>
-      <c r="F45" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="29"/>
-      <c r="C46" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="32">
-        <v>1</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="28"/>
-      <c r="C48" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="31">
-        <v>3</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="28"/>
-      <c r="C49" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="31">
-        <v>1</v>
-      </c>
       <c r="F49" s="31" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="28"/>
-      <c r="C50" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="20"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="21"/>
       <c r="E50" s="31">
         <v>1</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="25"/>
-      <c r="C52" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="31">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="32">
+        <v>2</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="42"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="31">
+        <v>1</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" s="20"/>
+      <c r="B55" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="42"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="44">
         <v>0.5</v>
       </c>
-      <c r="F52" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="31">
+      <c r="F56" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="48">
         <v>1</v>
       </c>
-      <c r="F53" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="28"/>
-      <c r="C54" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="31">
+      <c r="F57" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="26"/>
+      <c r="C58" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="49">
+        <v>3</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="42"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="43"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="32">
         <v>0.5</v>
       </c>
-      <c r="F54" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B55" s="26"/>
-      <c r="C55" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="32">
-        <v>1</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B56" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="24"/>
-      <c r="C57" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="31">
-        <v>1</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="20"/>
-      <c r="B58" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="43"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="20"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="24"/>
-      <c r="C59" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="F59" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="49">
-        <v>1</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>129</v>
+      <c r="F60" s="40" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="50">
-        <v>3</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>138</v>
-      </c>
+      <c r="B61" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B62" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="43"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="44"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="30">
+        <v>2</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="26"/>
-      <c r="C63" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="23"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="22"/>
       <c r="E63" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>129</v>
+        <v>2</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B64" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="44"/>
+      <c r="B64" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="43"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65" s="27"/>
       <c r="C65" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" s="19"/>
+        <v>127</v>
+      </c>
+      <c r="D65" s="20"/>
       <c r="E65" s="30">
+        <v>1</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="28"/>
+      <c r="C66" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="31">
         <v>2</v>
       </c>
-      <c r="F65" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="29"/>
-      <c r="C66" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="32">
-        <v>2</v>
-      </c>
-      <c r="F66" s="41" t="s">
-        <v>145</v>
+      <c r="F66" s="31" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="44"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="32">
+        <v>1</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="27"/>
-      <c r="C68" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="30">
-        <v>1</v>
-      </c>
-      <c r="F68" s="40" t="s">
-        <v>138</v>
-      </c>
+      <c r="B68" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="43"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" s="28"/>
-      <c r="C69" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="21"/>
+      <c r="C69" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="20"/>
       <c r="E69" s="31">
-        <v>3</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>145</v>
+        <v>2</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="29"/>
-      <c r="C70" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="32">
+      <c r="B70" s="28"/>
+      <c r="C70" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="E70" s="31">
         <v>1</v>
       </c>
-      <c r="F70" s="41" t="s">
-        <v>145</v>
+      <c r="F70" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="44"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="31">
+        <v>1</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="28"/>
       <c r="C72" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="31">
-        <v>2</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>138</v>
+        <v>0.5</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="28"/>
-      <c r="C73" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="31">
-        <v>1</v>
+      <c r="B73" s="29"/>
+      <c r="C73" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="32">
+        <v>0.5</v>
       </c>
       <c r="F73" s="40" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B74" s="28"/>
-      <c r="C74" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="31">
-        <v>1</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>138</v>
-      </c>
+      <c r="B74" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="43"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="28"/>
       <c r="C75" s="20" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B76" s="29"/>
-      <c r="C76" s="22" t="s">
+      <c r="B76" s="28"/>
+      <c r="C76" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="20"/>
+      <c r="E76" s="31">
+        <v>1</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B77" s="28"/>
+      <c r="C77" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="20"/>
+      <c r="E77" s="31">
+        <v>1</v>
+      </c>
+      <c r="F77" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F76" s="41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B77" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="44"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B78" s="28"/>
-      <c r="C78" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="31">
+      <c r="B78" s="29"/>
+      <c r="C78" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="32">
         <v>1</v>
       </c>
       <c r="F78" s="40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B79" s="28"/>
-      <c r="C79" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="31">
-        <v>1</v>
-      </c>
-      <c r="F79" s="40" t="s">
-        <v>145</v>
-      </c>
+      <c r="B79" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="43"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80" s="28"/>
       <c r="C80" s="20" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="31">
         <v>1</v>
       </c>
-      <c r="F80" s="40" t="s">
-        <v>138</v>
+      <c r="F80" s="39" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B81" s="29"/>
-      <c r="C81" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="32">
+      <c r="B81" s="28"/>
+      <c r="C81" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="20"/>
+      <c r="E81" s="31">
         <v>1</v>
       </c>
-      <c r="F81" s="41" t="s">
-        <v>138</v>
+      <c r="F81" s="39" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B82" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="44"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="20"/>
+      <c r="E82" s="31">
+        <v>1</v>
+      </c>
+      <c r="F82" s="39" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="28"/>
       <c r="C83" s="20" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D83" s="20"/>
       <c r="E83" s="31">
-        <v>1</v>
-      </c>
-      <c r="F83" s="40" t="s">
-        <v>145</v>
+        <v>2</v>
+      </c>
+      <c r="F83" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="28"/>
       <c r="C84" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="31">
         <v>1</v>
       </c>
-      <c r="F84" s="40" t="s">
-        <v>145</v>
+      <c r="F84" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B85" s="28"/>
-      <c r="C85" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="31">
+      <c r="B85" s="29"/>
+      <c r="C85" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D85" s="22"/>
+      <c r="E85" s="32">
         <v>1</v>
       </c>
       <c r="F85" s="40" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B86" s="28"/>
-      <c r="C86" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="31">
-        <v>2</v>
-      </c>
-      <c r="F86" s="40" t="s">
-        <v>138</v>
-      </c>
+      <c r="B86" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="43"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="28"/>
       <c r="C87" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D87" s="20"/>
       <c r="E87" s="31">
         <v>1</v>
       </c>
-      <c r="F87" s="40" t="s">
-        <v>138</v>
+      <c r="F87" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B88" s="29"/>
-      <c r="C88" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="32">
+      <c r="B88" s="28"/>
+      <c r="C88" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="20"/>
+      <c r="E88" s="31">
         <v>1</v>
       </c>
-      <c r="F88" s="41" t="s">
-        <v>138</v>
+      <c r="F88" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B89" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="44"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" s="20"/>
+      <c r="E89" s="31">
+        <v>1</v>
+      </c>
+      <c r="F89" s="39" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D90" s="20"/>
       <c r="E90" s="31">
-        <v>1</v>
-      </c>
-      <c r="F90" s="40" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="F90" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B91" s="28"/>
-      <c r="C91" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="31">
-        <v>1</v>
+      <c r="B91" s="29"/>
+      <c r="C91" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="32">
+        <v>5</v>
       </c>
       <c r="F91" s="40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B92" s="28"/>
-      <c r="C92" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D92" s="20"/>
-      <c r="E92" s="31">
-        <v>1</v>
-      </c>
-      <c r="F92" s="40" t="s">
-        <v>138</v>
-      </c>
+      <c r="B92" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="43"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B93" s="28"/>
-      <c r="C93" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D93" s="20"/>
-      <c r="E93" s="31">
-        <v>5</v>
-      </c>
-      <c r="F93" s="40" t="s">
-        <v>138</v>
+      <c r="B93" s="27"/>
+      <c r="C93" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93" s="18"/>
+      <c r="E93" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B94" s="29"/>
-      <c r="C94" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D94" s="22"/>
-      <c r="E94" s="32">
-        <v>5</v>
-      </c>
-      <c r="F94" s="41" t="s">
-        <v>138</v>
+      <c r="B94" s="28"/>
+      <c r="C94" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="20"/>
+      <c r="E94" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F94" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B95" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="44"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" s="20"/>
+      <c r="E95" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F95" s="39" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B96" s="27"/>
-      <c r="C96" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="F96" s="42" t="s">
-        <v>138</v>
+      <c r="B96" s="29"/>
+      <c r="C96" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" s="22"/>
+      <c r="E96" s="32">
+        <v>2</v>
+      </c>
+      <c r="F96" s="40" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B97" s="28"/>
-      <c r="C97" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D97" s="20"/>
-      <c r="E97" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F97" s="40" t="s">
-        <v>138</v>
-      </c>
+      <c r="B97" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="43"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98" s="28"/>
-      <c r="C98" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D98" s="20"/>
-      <c r="E98" s="31">
+      <c r="C98" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="30">
         <v>0.5</v>
       </c>
-      <c r="F98" s="40" t="s">
-        <v>138</v>
+      <c r="F98" s="41" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B99" s="29"/>
-      <c r="C99" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D99" s="22"/>
-      <c r="E99" s="32">
+      <c r="B99" s="28"/>
+      <c r="C99" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" s="20"/>
+      <c r="E99" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F99" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B100" s="28"/>
+      <c r="C100" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="20"/>
+      <c r="E100" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F100" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B101" s="29"/>
+      <c r="C101" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="22"/>
+      <c r="E101" s="32">
         <v>2</v>
       </c>
-      <c r="F99" s="41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B100" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="44"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B101" s="28"/>
-      <c r="C101" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="F101" s="42" t="s">
-        <v>138</v>
+      <c r="F101" s="40" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B102" s="28"/>
-      <c r="C102" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D102" s="20"/>
-      <c r="E102" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F102" s="40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B103" s="28"/>
-      <c r="C103" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" s="20"/>
-      <c r="E103" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F103" s="40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B104" s="29"/>
-      <c r="C104" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D104" s="22"/>
-      <c r="E104" s="32">
+      <c r="B102" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="42"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="38">
         <v>3</v>
       </c>
-      <c r="F104" s="41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B105" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C105" s="43"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="39">
-        <v>5</v>
-      </c>
-      <c r="F105" s="44" t="s">
-        <v>145</v>
+      <c r="F102" s="43" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4076,15 +4016,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
@@ -4093,6 +4024,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4331,20 +4271,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6842DE8-1306-4E32-9A52-AFE3A646B0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB98D515-35F7-4935-8CC5-A989DF32443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="161">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -1144,22 +1144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>武器掴み/武器投げ</t>
-    <rPh sb="0" eb="2">
-      <t>ブキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ブキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム取得</t>
     <rPh sb="4" eb="6">
       <t>シュトク</t>
@@ -1207,6 +1191,23 @@
   </si>
   <si>
     <t>コンボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器投げ</t>
+    <rPh sb="0" eb="3">
+      <t>ブキナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器掴み</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2658,7 +2659,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
-  <dimension ref="A2:J102"/>
+  <dimension ref="A2:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2712,7 +2713,7 @@
         <v>148</v>
       </c>
       <c r="J5" s="36">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -2727,7 +2728,7 @@
         <v>149</v>
       </c>
       <c r="J6" s="23">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
@@ -2890,7 +2891,7 @@
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="33"/>
       <c r="C18" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="31">
@@ -2916,11 +2917,11 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="33"/>
       <c r="C20" s="20" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>136</v>
@@ -2928,8 +2929,8 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="33"/>
-      <c r="C21" s="20" t="s">
-        <v>88</v>
+      <c r="C21" s="47" t="s">
+        <v>159</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="31">
@@ -2942,20 +2943,20 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="33"/>
       <c r="C22" s="20" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="31">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="33"/>
       <c r="C23" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="31">
@@ -2968,46 +2969,46 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="33"/>
       <c r="C24" s="20" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="31">
         <v>0.5</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="31" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="28"/>
-      <c r="C26" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="31">
-        <v>10</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>136</v>
-      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="28"/>
-      <c r="C27" s="20" t="s">
-        <v>86</v>
+      <c r="C27" s="47" t="s">
+        <v>154</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>136</v>
@@ -3016,37 +3017,37 @@
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="28"/>
       <c r="C28" s="20" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="28"/>
       <c r="C29" s="20" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="31">
         <v>1</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="28"/>
       <c r="C30" s="20" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>136</v>
@@ -3055,7 +3056,7 @@
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="28"/>
       <c r="C31" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="31">
@@ -3068,7 +3069,7 @@
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="28"/>
       <c r="C32" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="31">
@@ -3081,7 +3082,7 @@
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="28"/>
       <c r="C33" s="20" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="31">
@@ -3093,8 +3094,8 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="28"/>
-      <c r="C34" s="47" t="s">
-        <v>150</v>
+      <c r="C34" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="31">
@@ -3106,21 +3107,21 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="28"/>
-      <c r="C35" s="20" t="s">
-        <v>25</v>
+      <c r="C35" s="47" t="s">
+        <v>150</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="31">
         <v>0.5</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="28"/>
       <c r="C36" s="20" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="31">
@@ -3132,56 +3133,56 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="28"/>
-      <c r="C37" s="47" t="s">
-        <v>92</v>
+      <c r="C37" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="31">
         <v>0.5</v>
       </c>
       <c r="F37" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="28"/>
+      <c r="C38" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="34" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="28"/>
-      <c r="C39" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="30">
-        <v>1</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>126</v>
-      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="28"/>
       <c r="C40" s="46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="20"/>
-      <c r="E40" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="31" t="s">
+      <c r="E40" s="30">
+        <v>1</v>
+      </c>
+      <c r="F40" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="28"/>
       <c r="C41" s="46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="31">
@@ -3194,7 +3195,7 @@
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="28"/>
       <c r="C42" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="31">
@@ -3205,334 +3206,334 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="29"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="29"/>
+      <c r="C44" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="32">
+      <c r="D44" s="22"/>
+      <c r="E44" s="32">
         <v>1</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F44" s="31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="34" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="28"/>
-      <c r="C45" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="31">
-        <v>2</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>135</v>
-      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="28"/>
-      <c r="C46" s="47" t="s">
-        <v>97</v>
+      <c r="C46" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="28"/>
-      <c r="C47" s="20" t="s">
-        <v>32</v>
+      <c r="C47" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="31">
         <v>1</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="28"/>
+      <c r="C48" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="31">
+        <v>1</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="25"/>
-      <c r="C49" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>126</v>
-      </c>
+      <c r="C49" s="42"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B50" s="25"/>
-      <c r="C50" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="21"/>
+      <c r="C50" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="19"/>
       <c r="E50" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="28"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="25" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F51" s="31" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="26"/>
-      <c r="C52" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="32">
+      <c r="B52" s="28"/>
+      <c r="C52" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="32">
         <v>2</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F53" s="32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="42" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="24"/>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="42"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="24"/>
+      <c r="C55" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="31">
+      <c r="D55" s="19"/>
+      <c r="E55" s="31">
         <v>1</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F55" s="31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="20"/>
-      <c r="B55" s="42" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56" s="20"/>
+      <c r="B56" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="42"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="20"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B56" s="24"/>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="42"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="24"/>
+      <c r="C57" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="44">
+      <c r="D57" s="19"/>
+      <c r="E57" s="44">
         <v>0.5</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F57" s="30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="48">
+      <c r="D58" s="21"/>
+      <c r="E58" s="48">
         <v>1</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F58" s="31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B58" s="26"/>
-      <c r="C58" s="26" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="49">
+      <c r="D59" s="23"/>
+      <c r="E59" s="49">
         <v>3</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F59" s="32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="42" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="42"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="43"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="42"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="43"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="26"/>
+      <c r="C61" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="32">
+      <c r="D61" s="23"/>
+      <c r="E61" s="32">
         <v>0.5</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F61" s="40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="34" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="43"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B62" s="27"/>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="43"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B63" s="27"/>
+      <c r="C63" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="30">
+      <c r="D63" s="19"/>
+      <c r="E63" s="30">
         <v>2</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F63" s="30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="29"/>
-      <c r="C63" s="22" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B64" s="29"/>
+      <c r="C64" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="32">
+      <c r="D64" s="22"/>
+      <c r="E64" s="32">
         <v>2</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F64" s="40" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B64" s="34" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="43"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="27"/>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="43"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="27"/>
+      <c r="C66" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="30">
+      <c r="D66" s="20"/>
+      <c r="E66" s="30">
         <v>1</v>
       </c>
-      <c r="F65" s="39" t="s">
+      <c r="F66" s="39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="28"/>
-      <c r="C66" s="25" t="s">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67" s="28"/>
+      <c r="C67" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="31">
+      <c r="D67" s="21"/>
+      <c r="E67" s="31">
         <v>2</v>
       </c>
-      <c r="F66" s="31" t="s">
+      <c r="F67" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="29"/>
-      <c r="C67" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="32">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68" s="29"/>
+      <c r="C68" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="22"/>
+      <c r="E68" s="32">
         <v>1</v>
       </c>
-      <c r="F67" s="40" t="s">
+      <c r="F68" s="40" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="34" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="43"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B69" s="28"/>
-      <c r="C69" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="31">
-        <v>2</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>135</v>
-      </c>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="43"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="28"/>
       <c r="C70" s="20" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="39" t="s">
         <v>135</v>
@@ -3541,7 +3542,7 @@
     <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" s="28"/>
       <c r="C71" s="20" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="31">
@@ -3554,54 +3555,54 @@
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="28"/>
       <c r="C72" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F72" s="39" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="29"/>
-      <c r="C73" s="22" t="s">
+      <c r="B73" s="28"/>
+      <c r="C73" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="20"/>
+      <c r="E73" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B74" s="29"/>
+      <c r="C74" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="32">
+      <c r="D74" s="22"/>
+      <c r="E74" s="32">
         <v>0.5</v>
       </c>
-      <c r="F73" s="40" t="s">
+      <c r="F74" s="40" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B74" s="34" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B75" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="43"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B75" s="28"/>
-      <c r="C75" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="31">
-        <v>1</v>
-      </c>
-      <c r="F75" s="39" t="s">
-        <v>135</v>
-      </c>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="28"/>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="20" t="s">
         <v>153</v>
       </c>
       <c r="D76" s="20"/>
@@ -3609,61 +3610,61 @@
         <v>1</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77" s="28"/>
-      <c r="C77" s="20" t="s">
-        <v>108</v>
+      <c r="C77" s="47" t="s">
+        <v>152</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="31">
         <v>1</v>
       </c>
       <c r="F77" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B78" s="28"/>
+      <c r="C78" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="20"/>
+      <c r="E78" s="31">
+        <v>1</v>
+      </c>
+      <c r="F78" s="39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B78" s="29"/>
-      <c r="C78" s="22" t="s">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B79" s="29"/>
+      <c r="C79" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="32">
+      <c r="D79" s="22"/>
+      <c r="E79" s="32">
         <v>1</v>
       </c>
-      <c r="F78" s="40" t="s">
+      <c r="F79" s="40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B79" s="34" t="s">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B80" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="43"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B80" s="28"/>
-      <c r="C80" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="31">
-        <v>1</v>
-      </c>
-      <c r="F80" s="39" t="s">
-        <v>142</v>
-      </c>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="43"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81" s="28"/>
       <c r="C81" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="31">
@@ -3676,7 +3677,7 @@
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="28"/>
       <c r="C82" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="31">
@@ -3689,68 +3690,68 @@
     <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="28"/>
       <c r="C83" s="20" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D83" s="20"/>
       <c r="E83" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="28"/>
       <c r="C84" s="20" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" s="39" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B85" s="29"/>
-      <c r="C85" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="32">
+      <c r="B85" s="28"/>
+      <c r="C85" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="31">
         <v>1</v>
       </c>
-      <c r="F85" s="40" t="s">
+      <c r="F85" s="39" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="29"/>
+      <c r="C86" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="22"/>
+      <c r="E86" s="32">
+        <v>1</v>
+      </c>
+      <c r="F86" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B87" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="43"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B87" s="28"/>
-      <c r="C87" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="31">
-        <v>1</v>
-      </c>
-      <c r="F87" s="39" t="s">
-        <v>135</v>
-      </c>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="43"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="20" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="31">
@@ -3763,7 +3764,7 @@
     <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="28"/>
       <c r="C89" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D89" s="20"/>
       <c r="E89" s="31">
@@ -3776,68 +3777,68 @@
     <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="20" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D90" s="20"/>
       <c r="E90" s="31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F90" s="39" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B91" s="29"/>
-      <c r="C91" s="22" t="s">
+      <c r="B91" s="28"/>
+      <c r="C91" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="20"/>
+      <c r="E91" s="31">
+        <v>5</v>
+      </c>
+      <c r="F91" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B92" s="29"/>
+      <c r="C92" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="32">
+      <c r="D92" s="22"/>
+      <c r="E92" s="32">
         <v>5</v>
       </c>
-      <c r="F91" s="40" t="s">
+      <c r="F92" s="40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B92" s="34" t="s">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B93" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="43"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B93" s="27"/>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="43"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B94" s="27"/>
+      <c r="C94" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="30">
+      <c r="D94" s="18"/>
+      <c r="E94" s="30">
         <v>0.5</v>
       </c>
-      <c r="F93" s="41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B94" s="28"/>
-      <c r="C94" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F94" s="39" t="s">
+      <c r="F94" s="41" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B95" s="28"/>
       <c r="C95" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D95" s="20"/>
       <c r="E95" s="31">
@@ -3848,57 +3849,57 @@
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B96" s="29"/>
-      <c r="C96" s="22" t="s">
+      <c r="B96" s="28"/>
+      <c r="C96" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" s="20"/>
+      <c r="E96" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F96" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B97" s="29"/>
+      <c r="C97" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D96" s="22"/>
-      <c r="E96" s="32">
+      <c r="D97" s="22"/>
+      <c r="E97" s="32">
         <v>2</v>
       </c>
-      <c r="F96" s="40" t="s">
+      <c r="F97" s="40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B97" s="34" t="s">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B98" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="43"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B98" s="28"/>
-      <c r="C98" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="F98" s="41" t="s">
-        <v>135</v>
-      </c>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="43"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="28"/>
-      <c r="C99" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="31">
+      <c r="C99" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" s="18"/>
+      <c r="E99" s="30">
         <v>0.5</v>
       </c>
-      <c r="F99" s="39" t="s">
+      <c r="F99" s="41" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="28"/>
       <c r="C100" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D100" s="20"/>
       <c r="E100" s="31">
@@ -3909,28 +3910,41 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B101" s="29"/>
-      <c r="C101" s="26" t="s">
+      <c r="B101" s="28"/>
+      <c r="C101" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" s="20"/>
+      <c r="E101" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F101" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B102" s="29"/>
+      <c r="C102" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D101" s="22"/>
-      <c r="E101" s="32">
+      <c r="D102" s="22"/>
+      <c r="E102" s="32">
         <v>2</v>
       </c>
-      <c r="F101" s="40" t="s">
+      <c r="F102" s="40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B102" s="42" t="s">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B103" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C102" s="42"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="38">
+      <c r="C103" s="42"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="38">
         <v>3</v>
       </c>
-      <c r="F102" s="43" t="s">
+      <c r="F103" s="43" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4016,6 +4030,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
@@ -4024,15 +4047,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4271,20 +4285,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB98D515-35F7-4935-8CC5-A989DF32443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED83F9D-2A30-43AC-A72E-96FA446FC036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="160">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -699,16 +699,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所持金の保存</t>
-    <rPh sb="0" eb="3">
-      <t>ショジキン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>配置データ読み込み</t>
     <rPh sb="0" eb="2">
       <t>ハイチ</t>
@@ -799,16 +789,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所持金保存</t>
-    <rPh sb="0" eb="3">
-      <t>ショジキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>音量調節の処理</t>
     <rPh sb="0" eb="2">
       <t>オンリョウ</t>
@@ -829,16 +809,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>素材集め</t>
-    <rPh sb="0" eb="2">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -984,13 +954,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトルに戻る</t>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム終了</t>
     <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
@@ -998,19 +961,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>強化状態保存</t>
-    <rPh sb="0" eb="2">
-      <t>キョウカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
@@ -1071,27 +1021,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブレンド切り替え特殊</t>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未完</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム所持</t>
-    <rPh sb="4" eb="6">
-      <t>ショジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1151,23 +1081,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム状態保存</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステータス保存</t>
-    <rPh sb="5" eb="7">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1194,19 +1107,89 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>武器投げ</t>
-    <rPh sb="0" eb="3">
-      <t>ブキナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>武器掴み</t>
     <rPh sb="0" eb="2">
       <t>ブキ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルファ素材集め</t>
+    <rPh sb="4" eb="6">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセルと球の当たり判定</t>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒートゲージ回復</t>
+    <rPh sb="6" eb="8">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持金増減</t>
+    <rPh sb="0" eb="3">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゾウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーステータス保存</t>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了コスト</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセルとマップの当たり判定</t>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ設計</t>
+  </si>
+  <si>
+    <t>武器離す</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1218,7 +1201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1255,6 +1238,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1498,7 +1489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1611,9 +1602,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1663,6 +1651,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2659,7 +2677,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
-  <dimension ref="A2:J103"/>
+  <dimension ref="A2:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2668,605 +2686,687 @@
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="34"/>
-      <c r="C4" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" s="36">
+      <c r="C4" s="44" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="37" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="36">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="54" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
-      <c r="E5" s="38">
-        <v>12</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="37" t="s">
-        <v>111</v>
+      <c r="E5" s="37">
+        <v>4</v>
+      </c>
+      <c r="F5" s="37">
+        <v>4</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="54" t="s">
+        <v>158</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="I6" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="23">
+      <c r="E6" s="37">
+        <v>6</v>
+      </c>
+      <c r="F6" s="37">
+        <v>6</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="23">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="33"/>
-      <c r="C7" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="31">
-        <v>2</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="33"/>
       <c r="C8" s="20" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="31">
-        <v>3</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="31">
+        <v>2</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="33"/>
       <c r="C9" s="20" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="53">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="31">
+        <v>3</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="31">
         <v>0.5</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="51">
-        <v>45308</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="33"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="52"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="33"/>
+      <c r="C12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="31">
         <v>2</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" s="53">
-        <v>45328</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="37" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="33"/>
-      <c r="C13" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="31">
-        <v>1</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="33"/>
       <c r="C14" s="20" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="31">
         <v>1</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="33"/>
       <c r="C15" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="31">
         <v>1</v>
       </c>
-      <c r="F15" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="33"/>
       <c r="C16" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="31">
         <v>1</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F16" s="31">
+        <v>1</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="33"/>
       <c r="C17" s="20" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="31">
         <v>1</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="33"/>
-      <c r="C18" s="47" t="s">
-        <v>158</v>
+      <c r="C18" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="31">
-        <v>4</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="33"/>
-      <c r="C19" s="20" t="s">
-        <v>90</v>
+      <c r="C19" s="46" t="s">
+        <v>149</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="31">
-        <v>3</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="33"/>
       <c r="C20" s="20" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="31">
-        <v>3</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="33"/>
-      <c r="C21" s="47" t="s">
-        <v>159</v>
+      <c r="C21" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="31">
-        <v>3</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="31">
+        <v>1</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="33"/>
-      <c r="C22" s="20" t="s">
-        <v>88</v>
+      <c r="C22" s="46" t="s">
+        <v>159</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="31">
-        <v>3</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="31">
+        <v>1</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="33"/>
       <c r="C23" s="20" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="33"/>
       <c r="C24" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="31">
         <v>0.5</v>
       </c>
-      <c r="F24" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F24" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="33"/>
       <c r="C25" s="20" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="31">
         <v>0.5</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="34" t="s">
+      <c r="F25" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="33"/>
+      <c r="C26" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="28"/>
-      <c r="C27" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="31">
-        <v>10</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="28"/>
-      <c r="C28" s="20" t="s">
-        <v>86</v>
+      <c r="C28" s="46" t="s">
+        <v>145</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="31">
-        <v>6</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="28"/>
       <c r="C29" s="20" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="31">
-        <v>1</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="28"/>
       <c r="C30" s="20" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="31">
         <v>1</v>
       </c>
-      <c r="F30" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="28"/>
       <c r="C31" s="20" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="28"/>
       <c r="C32" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="31">
         <v>0.5</v>
       </c>
-      <c r="F32" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F32" s="31"/>
+      <c r="G32" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="28"/>
       <c r="C33" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="31">
         <v>0.5</v>
       </c>
-      <c r="F33" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F33" s="31"/>
+      <c r="G33" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="28"/>
       <c r="C34" s="20" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="31">
         <v>0.5</v>
       </c>
-      <c r="F34" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F34" s="31"/>
+      <c r="G34" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="28"/>
-      <c r="C35" s="47" t="s">
-        <v>150</v>
+      <c r="C35" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="31">
         <v>0.5</v>
       </c>
-      <c r="F35" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F35" s="31"/>
+      <c r="G35" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="28"/>
-      <c r="C36" s="20" t="s">
-        <v>25</v>
+      <c r="C36" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="31">
         <v>0.5</v>
       </c>
-      <c r="F36" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F36" s="31"/>
+      <c r="G36" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="28"/>
       <c r="C37" s="20" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="31">
         <v>0.5</v>
       </c>
-      <c r="F37" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F37" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="28"/>
-      <c r="C38" s="47" t="s">
-        <v>92</v>
+      <c r="C38" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="31">
         <v>0.5</v>
       </c>
-      <c r="F38" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="34" t="s">
+      <c r="F38" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" s="28"/>
+      <c r="C39" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B40" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B40" s="28"/>
-      <c r="C40" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="30">
+      <c r="C40" s="60"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B41" s="28"/>
+      <c r="C41" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="30">
         <v>1</v>
       </c>
-      <c r="F40" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="28"/>
-      <c r="C41" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F41" s="30">
+        <v>1</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="28"/>
-      <c r="C42" s="46" t="s">
-        <v>138</v>
+      <c r="C42" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="31">
         <v>0.5</v>
       </c>
-      <c r="F42" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F42" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="28"/>
-      <c r="C43" s="46" t="s">
-        <v>140</v>
+      <c r="C43" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="31">
         <v>0.5</v>
       </c>
-      <c r="F43" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="29"/>
-      <c r="C44" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="32">
-        <v>1</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="34" t="s">
+      <c r="F43" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="28"/>
+      <c r="C44" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="28"/>
       <c r="C46" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="31">
         <v>2</v>
       </c>
-      <c r="F46" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F46" s="31">
+        <v>2</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="28"/>
-      <c r="C47" s="47" t="s">
-        <v>97</v>
+      <c r="C47" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="31">
         <v>1</v>
       </c>
-      <c r="F47" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F47" s="31">
+        <v>1</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="28"/>
       <c r="C48" s="20" t="s">
         <v>32</v>
@@ -3275,33 +3375,40 @@
       <c r="E48" s="31">
         <v>1</v>
       </c>
-      <c r="F48" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="42" t="s">
+      <c r="F48" s="31">
+        <v>1</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B50" s="25"/>
       <c r="C50" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="31">
         <v>0.5</v>
       </c>
-      <c r="F50" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F50" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B51" s="25"/>
       <c r="C51" s="25" t="s">
         <v>94</v>
@@ -3310,11 +3417,14 @@
       <c r="E51" s="31">
         <v>1</v>
       </c>
-      <c r="F51" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F51" s="31">
+        <v>1</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B52" s="28"/>
       <c r="C52" s="25" t="s">
         <v>50</v>
@@ -3323,629 +3433,667 @@
       <c r="E52" s="31">
         <v>0.5</v>
       </c>
-      <c r="F52" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F52" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B53" s="26"/>
       <c r="C53" s="26" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="32">
         <v>2</v>
       </c>
-      <c r="F53" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="42" t="s">
+      <c r="F53" s="32"/>
+      <c r="G53" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B54" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B55" s="24"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B55" s="27"/>
       <c r="C55" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="31">
         <v>1</v>
       </c>
-      <c r="F55" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="20"/>
-      <c r="B56" s="42" t="s">
+      <c r="F55" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B56" s="28"/>
+      <c r="C56" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="31">
+        <v>1</v>
+      </c>
+      <c r="F57" s="38">
+        <v>1</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="20"/>
+      <c r="B58" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="20"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="24"/>
-      <c r="C57" s="24" t="s">
+      <c r="C58" s="60"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B59" s="24"/>
+      <c r="C59" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="48">
+      <c r="D59" s="19"/>
+      <c r="E59" s="43">
         <v>1</v>
       </c>
-      <c r="F58" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="49">
-        <v>3</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="42"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="43"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F59" s="30">
+        <v>1</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="25"/>
+      <c r="C60" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="47">
+        <v>1</v>
+      </c>
+      <c r="F60" s="63">
+        <v>1</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B61" s="26"/>
       <c r="C61" s="26" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D61" s="23"/>
-      <c r="E61" s="32">
+      <c r="E61" s="48">
+        <v>3</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="26"/>
+      <c r="C63" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="23"/>
+      <c r="E63" s="32">
         <v>0.5</v>
       </c>
-      <c r="F61" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B62" s="34" t="s">
+      <c r="F63" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B64" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="43"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="27"/>
-      <c r="C63" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="30">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="27"/>
+      <c r="C65" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="30">
         <v>2</v>
       </c>
-      <c r="F63" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B64" s="29"/>
-      <c r="C64" s="22" t="s">
+      <c r="F65" s="30"/>
+      <c r="G65" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B66" s="29"/>
+      <c r="C66" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="32">
+      <c r="D66" s="22"/>
+      <c r="E66" s="32">
         <v>2</v>
       </c>
-      <c r="F64" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="34" t="s">
+      <c r="F66" s="39"/>
+      <c r="G66" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="43"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="27"/>
-      <c r="C66" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="30">
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="27"/>
+      <c r="C68" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="30">
         <v>1</v>
       </c>
-      <c r="F66" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="28"/>
-      <c r="C67" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="31">
-        <v>2</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="29"/>
-      <c r="C68" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="32">
+      <c r="F68" s="38"/>
+      <c r="G68" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B69" s="28"/>
+      <c r="C69" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="31">
         <v>1</v>
       </c>
-      <c r="F68" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B69" s="34" t="s">
+      <c r="F69" s="31"/>
+      <c r="G69" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" s="29"/>
+      <c r="C70" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="32">
+        <v>1</v>
+      </c>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="43"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="28"/>
-      <c r="C70" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="31">
-        <v>2</v>
-      </c>
-      <c r="F70" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="28"/>
-      <c r="C71" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="31">
-        <v>1</v>
-      </c>
-      <c r="F71" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="28"/>
       <c r="C72" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="31">
-        <v>1</v>
-      </c>
-      <c r="F72" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="28"/>
       <c r="C73" s="20" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="31">
+        <v>4</v>
+      </c>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="28"/>
+      <c r="C74" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="20"/>
+      <c r="E74" s="31">
+        <v>1</v>
+      </c>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="29"/>
+      <c r="C75" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="22"/>
+      <c r="E75" s="32">
         <v>0.5</v>
       </c>
-      <c r="F73" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B74" s="29"/>
-      <c r="C74" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B75" s="34" t="s">
+      <c r="F75" s="39"/>
+      <c r="G75" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="43"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B76" s="28"/>
-      <c r="C76" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="31">
-        <v>1</v>
-      </c>
-      <c r="F76" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="28"/>
-      <c r="C77" s="47" t="s">
-        <v>152</v>
+      <c r="C77" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="31">
+        <v>4</v>
+      </c>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="28"/>
+      <c r="C79" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="20"/>
+      <c r="E79" s="31">
         <v>1</v>
       </c>
-      <c r="F77" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B78" s="28"/>
-      <c r="C78" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="31">
+      <c r="F79" s="38"/>
+      <c r="G79" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="28"/>
+      <c r="C80" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="20"/>
+      <c r="E80" s="31">
         <v>1</v>
       </c>
-      <c r="F78" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B79" s="29"/>
-      <c r="C79" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="32">
-        <v>1</v>
-      </c>
-      <c r="F79" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B80" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="43"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F80" s="38"/>
+      <c r="G80" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="28"/>
       <c r="C81" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="31">
-        <v>1</v>
-      </c>
-      <c r="F81" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="28"/>
       <c r="C82" s="20" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="31">
-        <v>1</v>
-      </c>
-      <c r="F82" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="28"/>
       <c r="C83" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D83" s="20"/>
       <c r="E83" s="31">
         <v>1</v>
       </c>
-      <c r="F83" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B84" s="28"/>
-      <c r="C84" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="31">
-        <v>2</v>
-      </c>
-      <c r="F84" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B85" s="28"/>
-      <c r="C85" s="20" t="s">
+      <c r="F83" s="38"/>
+      <c r="G83" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" s="29"/>
+      <c r="C84" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="22"/>
+      <c r="E84" s="32">
+        <v>1</v>
+      </c>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B86" s="28"/>
+      <c r="C86" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="31">
+      <c r="D86" s="20"/>
+      <c r="E86" s="31">
         <v>1</v>
       </c>
-      <c r="F85" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B86" s="29"/>
-      <c r="C86" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="32">
+      <c r="F86" s="38"/>
+      <c r="G86" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B87" s="28"/>
+      <c r="C87" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="E87" s="31">
         <v>1</v>
       </c>
-      <c r="F86" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B87" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="43"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F87" s="38"/>
+      <c r="G87" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="20" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="31">
         <v>1</v>
       </c>
-      <c r="F88" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F88" s="38"/>
+      <c r="G88" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="28"/>
       <c r="C89" s="20" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D89" s="20"/>
       <c r="E89" s="31">
+        <v>5</v>
+      </c>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B90" s="29"/>
+      <c r="C90" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="22"/>
+      <c r="E90" s="32">
+        <v>5</v>
+      </c>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B91" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="62"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B92" s="27"/>
+      <c r="C92" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D92" s="18"/>
+      <c r="E92" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B93" s="28"/>
+      <c r="C93" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="20"/>
+      <c r="E93" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B94" s="28"/>
+      <c r="C94" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="20"/>
+      <c r="E94" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B95" s="29"/>
+      <c r="C95" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" s="22"/>
+      <c r="E95" s="32">
+        <v>2</v>
+      </c>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B96" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B97" s="28"/>
+      <c r="C97" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" s="18"/>
+      <c r="E97" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B98" s="28"/>
+      <c r="C98" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D98" s="20"/>
+      <c r="E98" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B99" s="28"/>
+      <c r="C99" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="20"/>
+      <c r="E99" s="31">
         <v>1</v>
       </c>
-      <c r="F89" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B90" s="28"/>
-      <c r="C90" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="31">
-        <v>1</v>
-      </c>
-      <c r="F90" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B91" s="28"/>
-      <c r="C91" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="31">
-        <v>5</v>
-      </c>
-      <c r="F91" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B92" s="29"/>
-      <c r="C92" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="32">
-        <v>5</v>
-      </c>
-      <c r="F92" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B93" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="43"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B94" s="27"/>
-      <c r="C94" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="F94" s="41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B95" s="28"/>
-      <c r="C95" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D95" s="20"/>
-      <c r="E95" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F95" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B96" s="28"/>
-      <c r="C96" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D96" s="20"/>
-      <c r="E96" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F96" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B97" s="29"/>
-      <c r="C97" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" s="22"/>
-      <c r="E97" s="32">
+      <c r="F99" s="38"/>
+      <c r="G99" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B100" s="29"/>
+      <c r="C100" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" s="22"/>
+      <c r="E100" s="32">
         <v>2</v>
       </c>
-      <c r="F97" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B98" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="43"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B99" s="28"/>
-      <c r="C99" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="F99" s="41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B100" s="28"/>
-      <c r="C100" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D100" s="20"/>
-      <c r="E100" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F100" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B101" s="28"/>
-      <c r="C101" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D101" s="20"/>
-      <c r="E101" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F101" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B102" s="29"/>
-      <c r="C102" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D102" s="22"/>
-      <c r="E102" s="32">
-        <v>2</v>
-      </c>
-      <c r="F102" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B103" s="42" t="s">
+      <c r="F100" s="39"/>
+      <c r="G100" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B101" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="42"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="38">
+      <c r="C101" s="41"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="37">
         <v>3</v>
       </c>
-      <c r="F103" s="43" t="s">
-        <v>142</v>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4030,15 +4178,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
@@ -4047,6 +4186,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4285,20 +4433,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED83F9D-2A30-43AC-A72E-96FA446FC036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24DFC5-9205-42D9-A9A4-FD4E5AEA52E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -1489,7 +1489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1547,15 +1547,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1589,9 +1583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1619,24 +1610,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1652,34 +1628,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2677,1422 +2632,1330 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
-  <dimension ref="A2:K101"/>
+  <dimension ref="A4:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="31"/>
+      <c r="C4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="34"/>
-      <c r="C4" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="34" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="34">
+        <v>4</v>
+      </c>
+      <c r="E5" s="34">
+        <v>4</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="36">
+      <c r="J5" s="33">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="34">
+        <v>6</v>
+      </c>
+      <c r="E6" s="34">
+        <v>6</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="I7" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="26"/>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="29">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29">
+        <v>2</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="26"/>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="29">
+        <v>3</v>
+      </c>
+      <c r="E9" s="29">
+        <v>3</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="26"/>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="37">
+      <c r="I10" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="44">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="26"/>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="42">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="26"/>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="29">
+        <v>2</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="44">
+        <v>45318</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="26"/>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="26"/>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="26"/>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="26"/>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="26"/>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="26"/>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="29">
         <v>4</v>
       </c>
-      <c r="F5" s="37">
+      <c r="E19" s="29"/>
+      <c r="F19" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="26"/>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="29">
         <v>4</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="E20" s="29"/>
+      <c r="F20" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="26"/>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="29">
+        <v>2</v>
+      </c>
+      <c r="E21" s="29">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="36">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="37">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="26"/>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="29">
+        <v>2</v>
+      </c>
+      <c r="E22" s="29">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="26"/>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="29">
+        <v>3</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="26"/>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="26"/>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="26"/>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="26"/>
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="29">
+        <v>16</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29" s="26"/>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="29">
         <v>6</v>
       </c>
-      <c r="F6" s="37">
-        <v>6</v>
-      </c>
-      <c r="G6" s="37" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="26"/>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="29">
+        <v>1</v>
+      </c>
+      <c r="E30" s="29">
+        <v>1</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="33"/>
-      <c r="C8" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="31">
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="26"/>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="26"/>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="26"/>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="26"/>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="26"/>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="26"/>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="26"/>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="26"/>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="26"/>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="26"/>
+      <c r="C41" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="28">
+        <v>1</v>
+      </c>
+      <c r="E41" s="28">
+        <v>1</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="26"/>
+      <c r="C42" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="26"/>
+      <c r="C43" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="29">
+        <v>1</v>
+      </c>
+      <c r="E43" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="26"/>
+      <c r="C44" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="29">
+        <v>1</v>
+      </c>
+      <c r="E44" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="26"/>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="29">
         <v>2</v>
       </c>
-      <c r="F8" s="31">
+      <c r="E46" s="29">
         <v>2</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="F46" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="33"/>
-      <c r="C9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="31">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="26"/>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="29">
+        <v>1</v>
+      </c>
+      <c r="E47" s="29">
+        <v>1</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="26"/>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="29">
+        <v>1</v>
+      </c>
+      <c r="E48" s="29">
+        <v>1</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="23"/>
+      <c r="C50" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="29">
+        <v>1</v>
+      </c>
+      <c r="E51" s="29">
+        <v>1</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="26"/>
+      <c r="C52" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="30">
+        <v>2</v>
+      </c>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="25"/>
+      <c r="C55" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="29">
+        <v>1</v>
+      </c>
+      <c r="E55" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="26"/>
+      <c r="C56" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="29">
+        <v>1</v>
+      </c>
+      <c r="E57" s="35">
+        <v>1</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58" s="19"/>
+      <c r="B58" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="28">
+        <v>1</v>
+      </c>
+      <c r="E59" s="28">
+        <v>1</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="23"/>
+      <c r="C60" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="29">
+        <v>1</v>
+      </c>
+      <c r="E60" s="29">
+        <v>1</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="30">
         <v>3</v>
       </c>
-      <c r="F9" s="31">
+      <c r="E61" s="30"/>
+      <c r="F61" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B63" s="24"/>
+      <c r="C63" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B64" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="25"/>
+      <c r="C65" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="28">
+        <v>2</v>
+      </c>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="27"/>
+      <c r="C66" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="30">
+        <v>2</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68" s="25"/>
+      <c r="C68" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="28">
+        <v>1</v>
+      </c>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69" s="26"/>
+      <c r="C69" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="29">
+        <v>1</v>
+      </c>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="27"/>
+      <c r="C70" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="30">
+        <v>1</v>
+      </c>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B71" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="26"/>
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="29">
         <v>3</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="52"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="33"/>
-      <c r="C10" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="31">
+      <c r="E72" s="35"/>
+      <c r="F72" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B73" s="26"/>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="29">
+        <v>4</v>
+      </c>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B74" s="26"/>
+      <c r="C74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="29">
+        <v>1</v>
+      </c>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B75" s="27"/>
+      <c r="C75" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="30">
         <v>0.5</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="50"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="33"/>
-      <c r="C11" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11" s="52"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="33"/>
-      <c r="C12" s="20" t="s">
+      <c r="E75" s="36"/>
+      <c r="F75" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B76" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="32"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B77" s="26"/>
+      <c r="C77" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="29">
+        <v>4</v>
+      </c>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B78" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="31">
+      <c r="C78" s="32"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B79" s="26"/>
+      <c r="C79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="29">
+        <v>1</v>
+      </c>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B80" s="26"/>
+      <c r="C80" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="29">
+        <v>1</v>
+      </c>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B81" s="26"/>
+      <c r="C81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="29">
         <v>2</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="33"/>
-      <c r="C14" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="31">
-        <v>1</v>
-      </c>
-      <c r="F14" s="31">
-        <v>1</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="33"/>
-      <c r="C15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="31">
-        <v>1</v>
-      </c>
-      <c r="F15" s="31">
-        <v>1</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="33"/>
-      <c r="C16" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="31">
-        <v>1</v>
-      </c>
-      <c r="F16" s="31">
-        <v>1</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="33"/>
-      <c r="C17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="31">
-        <v>1</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="33"/>
-      <c r="C18" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="31">
-        <v>1</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="33"/>
-      <c r="C19" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="31">
-        <v>4</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="33"/>
-      <c r="C20" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="31">
-        <v>4</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="33"/>
-      <c r="C21" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="31">
+      <c r="E81" s="35"/>
+      <c r="F81" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B82" s="26"/>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="29">
         <v>2</v>
       </c>
-      <c r="F21" s="31">
-        <v>1</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="33"/>
-      <c r="C22" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="31">
-        <v>2</v>
-      </c>
-      <c r="F22" s="31">
-        <v>1</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="33"/>
-      <c r="C23" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="31">
-        <v>3</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="33"/>
-      <c r="C24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="33"/>
-      <c r="C25" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="33"/>
-      <c r="C26" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="28"/>
-      <c r="C28" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="31">
-        <v>10</v>
-      </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="28"/>
-      <c r="C29" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="31">
-        <v>6</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="28"/>
-      <c r="C30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="31">
-        <v>1</v>
-      </c>
-      <c r="F30" s="31">
-        <v>1</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="28"/>
-      <c r="C31" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="28"/>
-      <c r="C32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="28"/>
-      <c r="C33" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="28"/>
-      <c r="C34" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="28"/>
-      <c r="C35" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="28"/>
-      <c r="C36" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="28"/>
-      <c r="C37" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F37" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="28"/>
-      <c r="C38" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F38" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="28"/>
-      <c r="C39" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="28"/>
-      <c r="C41" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="30">
-        <v>1</v>
-      </c>
-      <c r="F41" s="30">
-        <v>1</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="28"/>
-      <c r="C42" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="28"/>
-      <c r="C43" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F43" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="28"/>
-      <c r="C44" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F44" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="28"/>
-      <c r="C46" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="31">
-        <v>2</v>
-      </c>
-      <c r="F46" s="31">
-        <v>2</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="28"/>
-      <c r="C47" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="31">
-        <v>1</v>
-      </c>
-      <c r="F47" s="31">
-        <v>1</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="28"/>
-      <c r="C48" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="31">
-        <v>1</v>
-      </c>
-      <c r="F48" s="31">
-        <v>1</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B50" s="25"/>
-      <c r="C50" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F50" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="31">
-        <v>1</v>
-      </c>
-      <c r="F51" s="31">
-        <v>1</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B52" s="28"/>
-      <c r="C52" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F52" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B53" s="26"/>
-      <c r="C53" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="32">
-        <v>2</v>
-      </c>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B54" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B55" s="27"/>
-      <c r="C55" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="31">
-        <v>1</v>
-      </c>
-      <c r="F55" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B56" s="28"/>
-      <c r="C56" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F56" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="31">
-        <v>1</v>
-      </c>
-      <c r="F57" s="38">
-        <v>1</v>
-      </c>
-      <c r="G57" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" s="20"/>
-      <c r="B58" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="20"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B59" s="24"/>
-      <c r="C59" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="43">
-        <v>1</v>
-      </c>
-      <c r="F59" s="30">
-        <v>1</v>
-      </c>
-      <c r="G59" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="47">
-        <v>1</v>
-      </c>
-      <c r="F60" s="63">
-        <v>1</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="48">
-        <v>3</v>
-      </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32" t="s">
+      <c r="E82" s="35"/>
+      <c r="F82" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B62" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B63" s="26"/>
-      <c r="C63" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F63" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B64" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="27"/>
-      <c r="C65" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="30">
-        <v>2</v>
-      </c>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30" t="s">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B83" s="26"/>
+      <c r="C83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="29">
+        <v>1</v>
+      </c>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="29"/>
-      <c r="C66" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="32">
-        <v>2</v>
-      </c>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B68" s="27"/>
-      <c r="C68" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="30">
-        <v>1</v>
-      </c>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B84" s="27"/>
+      <c r="C84" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="30">
+        <v>1</v>
+      </c>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="28"/>
-      <c r="C69" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="31">
-        <v>1</v>
-      </c>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="29"/>
-      <c r="C70" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="32">
-        <v>1</v>
-      </c>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B71" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B72" s="28"/>
-      <c r="C72" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="31">
-        <v>3</v>
-      </c>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38" t="s">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B85" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="32"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B86" s="26"/>
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="29">
+        <v>1</v>
+      </c>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B73" s="28"/>
-      <c r="C73" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="31">
-        <v>4</v>
-      </c>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38" t="s">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B87" s="26"/>
+      <c r="C87" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="29">
+        <v>1</v>
+      </c>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B74" s="28"/>
-      <c r="C74" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="31">
-        <v>1</v>
-      </c>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38" t="s">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B88" s="26"/>
+      <c r="C88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="29">
+        <v>1</v>
+      </c>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B75" s="29"/>
-      <c r="C75" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B76" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B77" s="28"/>
-      <c r="C77" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="31">
-        <v>4</v>
-      </c>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38" t="s">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B89" s="26"/>
+      <c r="C89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="29">
+        <v>5</v>
+      </c>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B78" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B79" s="28"/>
-      <c r="C79" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="31">
-        <v>1</v>
-      </c>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B80" s="28"/>
-      <c r="C80" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="31">
-        <v>1</v>
-      </c>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="28"/>
-      <c r="C81" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="31">
-        <v>2</v>
-      </c>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B82" s="28"/>
-      <c r="C82" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="31">
-        <v>2</v>
-      </c>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38" t="s">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B90" s="27"/>
+      <c r="C90" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="30">
+        <v>5</v>
+      </c>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="28"/>
-      <c r="C83" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="31">
-        <v>1</v>
-      </c>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B84" s="29"/>
-      <c r="C84" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="32">
-        <v>1</v>
-      </c>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B85" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B86" s="28"/>
-      <c r="C86" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="31">
-        <v>1</v>
-      </c>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B87" s="28"/>
-      <c r="C87" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="31">
-        <v>1</v>
-      </c>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B88" s="28"/>
-      <c r="C88" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="31">
-        <v>1</v>
-      </c>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B89" s="28"/>
-      <c r="C89" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="31">
-        <v>5</v>
-      </c>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B90" s="29"/>
-      <c r="C90" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="32">
-        <v>5</v>
-      </c>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B91" s="55" t="s">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B91" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C91" s="58"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="62"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B92" s="27"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B92" s="25"/>
       <c r="C92" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="30">
+      <c r="D92" s="28">
         <v>0.5</v>
       </c>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40" t="s">
+      <c r="E92" s="37"/>
+      <c r="F92" s="37" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B93" s="28"/>
-      <c r="C93" s="20" t="s">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B93" s="26"/>
+      <c r="C93" t="s">
         <v>106</v>
       </c>
-      <c r="D93" s="20"/>
-      <c r="E93" s="31">
+      <c r="D93" s="29">
         <v>0.5</v>
       </c>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38" t="s">
+      <c r="E93" s="35"/>
+      <c r="F93" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B94" s="28"/>
-      <c r="C94" s="20" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B94" s="26"/>
+      <c r="C94" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="31">
+      <c r="D94" s="29">
         <v>0.5</v>
       </c>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38" t="s">
+      <c r="E94" s="35"/>
+      <c r="F94" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B95" s="29"/>
-      <c r="C95" s="22" t="s">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B95" s="27"/>
+      <c r="C95" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D95" s="22"/>
-      <c r="E95" s="32">
+      <c r="D95" s="30">
         <v>2</v>
       </c>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39" t="s">
+      <c r="E95" s="36"/>
+      <c r="F95" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B96" s="55" t="s">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B96" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B97" s="28"/>
-      <c r="C97" s="24" t="s">
+      <c r="C96" s="32"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B97" s="26"/>
+      <c r="C97" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="18"/>
-      <c r="E97" s="30">
+      <c r="D97" s="28">
         <v>0.5</v>
       </c>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40" t="s">
+      <c r="E97" s="37"/>
+      <c r="F97" s="37" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B98" s="28"/>
-      <c r="C98" s="25" t="s">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B98" s="26"/>
+      <c r="C98" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="20"/>
-      <c r="E98" s="31">
+      <c r="D98" s="29">
         <v>0.5</v>
       </c>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38" t="s">
+      <c r="E98" s="35"/>
+      <c r="F98" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B99" s="28"/>
-      <c r="C99" s="25" t="s">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B99" s="26"/>
+      <c r="C99" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="31">
-        <v>1</v>
-      </c>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38" t="s">
+      <c r="D99" s="29">
+        <v>1</v>
+      </c>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B100" s="29"/>
-      <c r="C100" s="26" t="s">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B100" s="27"/>
+      <c r="C100" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D100" s="22"/>
-      <c r="E100" s="32">
+      <c r="D100" s="30">
         <v>2</v>
       </c>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39" t="s">
+      <c r="E100" s="36"/>
+      <c r="F100" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B101" s="53" t="s">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B101" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="41"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="37">
+      <c r="C101" s="38"/>
+      <c r="D101" s="34">
         <v>3</v>
       </c>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42" t="s">
+      <c r="E101" s="39"/>
+      <c r="F101" s="39" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4178,6 +4041,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
@@ -4186,15 +4058,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4433,20 +4296,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24DFC5-9205-42D9-A9A4-FD4E5AEA52E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E604042E-5796-4B5D-AC0E-DCF552540F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -2634,9 +2634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
   <dimension ref="A4:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2925,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>123</v>
@@ -4041,15 +4039,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
@@ -4058,6 +4047,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4296,20 +4294,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E604042E-5796-4B5D-AC0E-DCF552540F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157DA00B-69F1-48BD-BFB5-FDBFEC4941DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="3510" yWindow="1425" windowWidth="21600" windowHeight="13380" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="コピー元" sheetId="1" r:id="rId1"/>
@@ -2634,7 +2634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
   <dimension ref="A4:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2703,7 +2705,7 @@
         <v>141</v>
       </c>
       <c r="J6" s="33">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
@@ -2718,7 +2720,7 @@
         <v>142</v>
       </c>
       <c r="J7" s="21">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -2952,7 +2954,9 @@
       <c r="D23" s="29">
         <v>3</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="29">
+        <v>2</v>
+      </c>
       <c r="F23" s="29" t="s">
         <v>131</v>
       </c>
@@ -4039,6 +4043,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
@@ -4047,15 +4060,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4294,20 +4298,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157DA00B-69F1-48BD-BFB5-FDBFEC4941DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3ED46F-4032-4456-BC1C-05711B703F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1425" windowWidth="21600" windowHeight="13380" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="コピー元" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="161">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -1190,6 +1190,13 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非同期処理</t>
+    <rPh sb="0" eb="5">
+      <t>ヒドウキショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2632,11 +2639,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
-  <dimension ref="A4:J101"/>
+  <dimension ref="A4:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2684,7 +2689,7 @@
         <v>140</v>
       </c>
       <c r="J5" s="33">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -2720,7 +2725,7 @@
         <v>142</v>
       </c>
       <c r="J7" s="21">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -3949,15 +3954,26 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="30">
+        <v>1</v>
+      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B102" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="34">
+      <c r="C102" s="38"/>
+      <c r="D102" s="34">
         <v>3</v>
       </c>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39" t="s">
+      <c r="E102" s="39"/>
+      <c r="F102" s="39" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4043,15 +4059,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
@@ -4060,6 +4067,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4298,20 +4314,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10710"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3ED46F-4032-4456-BC1C-05711B703F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9B3ED46F-4032-4456-BC1C-05711B703F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A95C2506-A3CF-1E45-BCF2-16115C586D97}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -32,6 +32,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1662,9 +1664,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1702,7 +1704,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1808,7 +1810,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1950,7 +1952,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1965,12 +1967,12 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.75" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="87.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1993,7 @@
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -2008,7 +2010,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2029,39 +2031,39 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
@@ -2078,13 +2080,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="44.625" customWidth="1"/>
-    <col min="3" max="11" width="12.875" customWidth="1"/>
+    <col min="1" max="2" width="44.62109375" customWidth="1"/>
+    <col min="3" max="11" width="12.87109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>53</v>
       </c>
@@ -2107,7 +2109,7 @@
       </c>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="8" t="s">
@@ -2128,7 +2130,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2153,7 +2155,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2162,7 +2164,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
@@ -2172,14 +2174,14 @@
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>58</v>
       </c>
@@ -2187,7 +2189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -2203,7 +2205,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -2211,14 +2213,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -2226,7 +2228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2234,7 +2236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>47</v>
       </c>
@@ -2242,7 +2244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -2250,14 +2252,14 @@
         <v>45570</v>
       </c>
     </row>
-    <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:5" outlineLevel="3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -2265,10 +2267,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -2276,31 +2278,31 @@
       <c r="C19" s="15"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
@@ -2309,69 +2311,69 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C33" s="14"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
@@ -2388,244 +2390,244 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>62</v>
       </c>
@@ -2643,17 +2645,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.94921875" style="1"/>
+    <col min="6" max="6" width="11.03125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.24609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.19140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="40" t="s">
         <v>129</v>
@@ -2671,7 +2673,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="46" t="s">
         <v>69</v>
       </c>
@@ -2692,7 +2694,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="46" t="s">
         <v>158</v>
       </c>
@@ -2710,10 +2712,10 @@
         <v>141</v>
       </c>
       <c r="J6" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="46" t="s">
         <v>151</v>
       </c>
@@ -2725,10 +2727,10 @@
         <v>142</v>
       </c>
       <c r="J7" s="21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="26"/>
       <c r="C8" t="s">
         <v>109</v>
@@ -2743,7 +2745,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>47</v>
@@ -2758,7 +2760,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="26"/>
       <c r="C10" t="s">
         <v>110</v>
@@ -2777,7 +2779,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="26"/>
       <c r="C11" t="s">
         <v>111</v>
@@ -2796,7 +2798,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="26"/>
       <c r="C12" t="s">
         <v>67</v>
@@ -2815,7 +2817,7 @@
         <v>45318</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="46" t="s">
         <v>64</v>
       </c>
@@ -2824,7 +2826,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" t="s">
         <v>86</v>
@@ -2839,7 +2841,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" t="s">
         <v>27</v>
@@ -2854,7 +2856,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" t="s">
         <v>28</v>
@@ -2869,7 +2871,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" t="s">
         <v>29</v>
@@ -2882,7 +2884,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" t="s">
         <v>87</v>
@@ -2895,7 +2897,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="26"/>
       <c r="C19" t="s">
         <v>149</v>
@@ -2908,7 +2910,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="26"/>
       <c r="C20" t="s">
         <v>90</v>
@@ -2921,7 +2923,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="26"/>
       <c r="C21" t="s">
         <v>150</v>
@@ -2936,7 +2938,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="26"/>
       <c r="C22" t="s">
         <v>159</v>
@@ -2951,7 +2953,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>88</v>
@@ -2966,7 +2968,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="26"/>
       <c r="C24" t="s">
         <v>25</v>
@@ -2981,7 +2983,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="26"/>
       <c r="C25" t="s">
         <v>26</v>
@@ -2996,7 +2998,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="26"/>
       <c r="C26" t="s">
         <v>89</v>
@@ -3011,7 +3013,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="46" t="s">
         <v>65</v>
       </c>
@@ -3020,7 +3022,7 @@
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="26"/>
       <c r="C28" t="s">
         <v>145</v>
@@ -3033,7 +3035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="26"/>
       <c r="C29" t="s">
         <v>86</v>
@@ -3046,7 +3048,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>21</v>
@@ -3061,7 +3063,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="26"/>
       <c r="C31" t="s">
         <v>54</v>
@@ -3074,7 +3076,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="26"/>
       <c r="C32" t="s">
         <v>27</v>
@@ -3082,12 +3084,14 @@
       <c r="D32" s="29">
         <v>0.5</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="29">
+        <v>0.5</v>
+      </c>
       <c r="F32" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="26"/>
       <c r="C33" t="s">
         <v>28</v>
@@ -3095,12 +3099,14 @@
       <c r="D33" s="29">
         <v>0.5</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="29">
+        <v>0.5</v>
+      </c>
       <c r="F33" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="26"/>
       <c r="C34" t="s">
         <v>29</v>
@@ -3113,7 +3119,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="26"/>
       <c r="C35" t="s">
         <v>87</v>
@@ -3126,7 +3132,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="26"/>
       <c r="C36" t="s">
         <v>143</v>
@@ -3134,12 +3140,14 @@
       <c r="D36" s="29">
         <v>0.5</v>
       </c>
-      <c r="E36" s="29"/>
+      <c r="E36" s="29">
+        <v>0.5</v>
+      </c>
       <c r="F36" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="26"/>
       <c r="C37" t="s">
         <v>25</v>
@@ -3154,7 +3162,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="26"/>
       <c r="C38" t="s">
         <v>147</v>
@@ -3169,7 +3177,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="26"/>
       <c r="C39" t="s">
         <v>92</v>
@@ -3182,7 +3190,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="46" t="s">
         <v>91</v>
       </c>
@@ -3191,7 +3199,7 @@
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="26"/>
       <c r="C41" s="23" t="s">
         <v>132</v>
@@ -3206,7 +3214,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="26"/>
       <c r="C42" s="23" t="s">
         <v>134</v>
@@ -3221,7 +3229,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="26"/>
       <c r="C43" s="23" t="s">
         <v>133</v>
@@ -3236,7 +3244,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="26"/>
       <c r="C44" s="23" t="s">
         <v>135</v>
@@ -3251,7 +3259,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="46" t="s">
         <v>72</v>
       </c>
@@ -3260,7 +3268,7 @@
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="26"/>
       <c r="C46" t="s">
         <v>95</v>
@@ -3275,7 +3283,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="26"/>
       <c r="C47" t="s">
         <v>96</v>
@@ -3290,7 +3298,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="26"/>
       <c r="C48" t="s">
         <v>32</v>
@@ -3305,7 +3313,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" s="45" t="s">
         <v>73</v>
       </c>
@@ -3314,7 +3322,7 @@
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B50" s="23"/>
       <c r="C50" s="22" t="s">
         <v>119</v>
@@ -3329,7 +3337,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
         <v>94</v>
@@ -3344,7 +3352,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="26"/>
       <c r="C52" s="23" t="s">
         <v>50</v>
@@ -3359,7 +3367,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="24"/>
       <c r="C53" s="24" t="s">
         <v>146</v>
@@ -3372,7 +3380,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B54" s="45" t="s">
         <v>63</v>
       </c>
@@ -3381,7 +3389,7 @@
       <c r="E54" s="34"/>
       <c r="F54" s="34"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" s="25"/>
       <c r="C55" s="22" t="s">
         <v>125</v>
@@ -3396,7 +3404,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" s="26"/>
       <c r="C56" s="23" t="s">
         <v>152</v>
@@ -3411,7 +3419,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" s="23"/>
       <c r="C57" s="23" t="s">
         <v>157</v>
@@ -3426,7 +3434,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="45" t="s">
         <v>66</v>
@@ -3437,7 +3445,7 @@
       <c r="F58" s="39"/>
       <c r="G58" s="19"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B59" s="22"/>
       <c r="C59" s="22" t="s">
         <v>93</v>
@@ -3452,7 +3460,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B60" s="23"/>
       <c r="C60" s="23" t="s">
         <v>95</v>
@@ -3467,7 +3475,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B61" s="24"/>
       <c r="C61" s="24" t="s">
         <v>100</v>
@@ -3480,7 +3488,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B62" s="45" t="s">
         <v>74</v>
       </c>
@@ -3489,7 +3497,7 @@
       <c r="E62" s="39"/>
       <c r="F62" s="39"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B63" s="24"/>
       <c r="C63" s="24" t="s">
         <v>154</v>
@@ -3504,7 +3512,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B64" s="46" t="s">
         <v>75</v>
       </c>
@@ -3513,7 +3521,7 @@
       <c r="E64" s="39"/>
       <c r="F64" s="39"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="25"/>
       <c r="C65" s="22" t="s">
         <v>105</v>
@@ -3526,7 +3534,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="27"/>
       <c r="C66" s="20" t="s">
         <v>42</v>
@@ -3539,7 +3547,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="46" t="s">
         <v>23</v>
       </c>
@@ -3548,7 +3556,7 @@
       <c r="E67" s="39"/>
       <c r="F67" s="39"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="25"/>
       <c r="C68" s="22" t="s">
         <v>124</v>
@@ -3561,7 +3569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="26"/>
       <c r="C69" s="23" t="s">
         <v>153</v>
@@ -3574,7 +3582,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="27"/>
       <c r="C70" s="20" t="s">
         <v>144</v>
@@ -3587,7 +3595,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="46" t="s">
         <v>55</v>
       </c>
@@ -3596,7 +3604,7 @@
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="26"/>
       <c r="C72" t="s">
         <v>126</v>
@@ -3609,7 +3617,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="26"/>
       <c r="C73" t="s">
         <v>24</v>
@@ -3622,7 +3630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="26"/>
       <c r="C74" t="s">
         <v>127</v>
@@ -3635,7 +3643,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="27"/>
       <c r="C75" s="20" t="s">
         <v>128</v>
@@ -3648,7 +3656,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="46" t="s">
         <v>36</v>
       </c>
@@ -3657,7 +3665,7 @@
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="26"/>
       <c r="C77" t="s">
         <v>155</v>
@@ -3670,7 +3678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="46" t="s">
         <v>67</v>
       </c>
@@ -3679,7 +3687,7 @@
       <c r="E78" s="39"/>
       <c r="F78" s="39"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="26"/>
       <c r="C79" t="s">
         <v>97</v>
@@ -3692,7 +3700,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="26"/>
       <c r="C80" t="s">
         <v>98</v>
@@ -3705,7 +3713,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="26"/>
       <c r="C81" t="s">
         <v>99</v>
@@ -3718,7 +3726,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="26"/>
       <c r="C82" t="s">
         <v>55</v>
@@ -3731,7 +3739,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>101</v>
@@ -3744,7 +3752,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="27"/>
       <c r="C84" s="20" t="s">
         <v>148</v>
@@ -3757,7 +3765,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="46" t="s">
         <v>68</v>
       </c>
@@ -3766,7 +3774,7 @@
       <c r="E85" s="39"/>
       <c r="F85" s="39"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>102</v>
@@ -3779,7 +3787,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="26"/>
       <c r="C87" t="s">
         <v>117</v>
@@ -3792,7 +3800,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="26"/>
       <c r="C88" t="s">
         <v>118</v>
@@ -3805,7 +3813,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="26"/>
       <c r="C89" t="s">
         <v>103</v>
@@ -3818,7 +3826,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="27"/>
       <c r="C90" s="20" t="s">
         <v>104</v>
@@ -3831,7 +3839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="46" t="s">
         <v>70</v>
       </c>
@@ -3840,7 +3848,7 @@
       <c r="E91" s="39"/>
       <c r="F91" s="39"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="25"/>
       <c r="C92" s="18" t="s">
         <v>107</v>
@@ -3853,7 +3861,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>106</v>
@@ -3866,7 +3874,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="26"/>
       <c r="C94" t="s">
         <v>108</v>
@@ -3879,7 +3887,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="27"/>
       <c r="C95" s="20" t="s">
         <v>116</v>
@@ -3892,7 +3900,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="46" t="s">
         <v>71</v>
       </c>
@@ -3901,7 +3909,7 @@
       <c r="E96" s="39"/>
       <c r="F96" s="39"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="26"/>
       <c r="C97" s="22" t="s">
         <v>112</v>
@@ -3914,7 +3922,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="26"/>
       <c r="C98" s="23" t="s">
         <v>113</v>
@@ -3927,7 +3935,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="26"/>
       <c r="C99" s="23" t="s">
         <v>114</v>
@@ -3940,7 +3948,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="27"/>
       <c r="C100" s="24" t="s">
         <v>115</v>
@@ -3953,7 +3961,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="24" t="s">
         <v>160</v>
       </c>
@@ -3964,7 +3972,7 @@
       <c r="E101" s="36"/>
       <c r="F101" s="36"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="45" t="s">
         <v>85</v>
       </c>
@@ -3990,9 +3998,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -4000,27 +4008,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>80</v>
       </c>
@@ -4037,9 +4045,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -4047,7 +4055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>85</v>
       </c>
@@ -4059,26 +4067,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4313,40 +4301,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
     <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10710"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9B3ED46F-4032-4456-BC1C-05711B703F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A95C2506-A3CF-1E45-BCF2-16115C586D97}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AC61CC-B71A-40C5-B3F5-CC7AE0D19B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -32,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="166">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -1202,6 +1200,56 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>被弾</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日の日付</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り日数(土日除く)</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>一日の消費コスト</t>
+    <rPh sb="0" eb="2">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
@@ -1210,7 +1258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,8 +1306,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1311,6 +1366,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,7 +1559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1645,6 +1706,22 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1664,9 +1741,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1704,7 +1781,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1810,7 +1887,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1952,7 +2029,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1967,12 +2044,12 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="87.75" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +2070,7 @@
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -2010,7 +2087,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2031,39 +2108,39 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
@@ -2080,13 +2157,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="44.62109375" customWidth="1"/>
-    <col min="3" max="11" width="12.87109375" customWidth="1"/>
+    <col min="1" max="2" width="44.625" customWidth="1"/>
+    <col min="3" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>53</v>
       </c>
@@ -2109,7 +2186,7 @@
       </c>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="8" t="s">
@@ -2130,7 +2207,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2232,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2164,7 +2241,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
@@ -2174,14 +2251,14 @@
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>58</v>
       </c>
@@ -2189,7 +2266,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -2197,7 +2274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -2205,7 +2282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -2213,14 +2290,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -2228,7 +2305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2236,7 +2313,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>47</v>
       </c>
@@ -2244,7 +2321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -2252,14 +2329,14 @@
         <v>45570</v>
       </c>
     </row>
-    <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A16" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:5" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -2267,10 +2344,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -2278,31 +2355,31 @@
       <c r="C19" s="15"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
@@ -2311,69 +2388,69 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C33" s="14"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
@@ -2390,244 +2467,244 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>62</v>
       </c>
@@ -2641,21 +2718,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
-  <dimension ref="A4:J102"/>
+  <dimension ref="A4:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="27.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.94921875" style="1"/>
-    <col min="6" max="6" width="11.03125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.24609375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.19140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="31"/>
       <c r="C4" s="40" t="s">
         <v>129</v>
@@ -2673,7 +2752,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="46" t="s">
         <v>69</v>
       </c>
@@ -2687,14 +2766,15 @@
       <c r="F5" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="46" t="s">
         <v>140</v>
       </c>
       <c r="J5" s="33">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <f>SUM(D5:D104)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="46" t="s">
         <v>158</v>
       </c>
@@ -2708,14 +2788,14 @@
       <c r="F6" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="49" t="s">
         <v>141</v>
       </c>
       <c r="J6" s="33">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="46" t="s">
         <v>151</v>
       </c>
@@ -2723,14 +2803,15 @@
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="50" t="s">
         <v>142</v>
       </c>
       <c r="J7" s="21">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+        <f ca="1">NETWORKDAYS(J8,J9)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="26"/>
       <c r="C8" t="s">
         <v>109</v>
@@ -2744,8 +2825,14 @@
       <c r="F8" s="28" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="44">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>47</v>
@@ -2759,8 +2846,15 @@
       <c r="F9" s="29" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I9" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="44">
+        <f ca="1">TODAY()</f>
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="26"/>
       <c r="C10" t="s">
         <v>110</v>
@@ -2772,14 +2866,8 @@
       <c r="F10" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="J10" s="44">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="26"/>
       <c r="C11" t="s">
         <v>111</v>
@@ -2791,14 +2879,8 @@
       <c r="F11" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="J11" s="42">
-        <v>45304</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="26"/>
       <c r="C12" t="s">
         <v>67</v>
@@ -2810,14 +2892,8 @@
       <c r="F12" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="44">
-        <v>45318</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="46" t="s">
         <v>64</v>
       </c>
@@ -2825,8 +2901,14 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="26"/>
       <c r="C14" t="s">
         <v>86</v>
@@ -2840,8 +2922,22 @@
       <c r="F14" s="28" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I14" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="44">
+        <v>45646</v>
+      </c>
+      <c r="K14" s="31">
+        <f ca="1">NETWORKDAYS(J9,J14)</f>
+        <v>40</v>
+      </c>
+      <c r="L14" s="53">
+        <f ca="1">($J$5 - $J$6) / K14</f>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="26"/>
       <c r="C15" t="s">
         <v>27</v>
@@ -2855,8 +2951,22 @@
       <c r="F15" s="29" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I15" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="42">
+        <v>45670</v>
+      </c>
+      <c r="K15" s="31">
+        <f ca="1">NETWORKDAYS(J9,J15)</f>
+        <v>56</v>
+      </c>
+      <c r="L15" s="53">
+        <f ca="1">($J$5 - $J$6) / K15</f>
+        <v>1.6964285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="26"/>
       <c r="C16" t="s">
         <v>28</v>
@@ -2870,8 +2980,22 @@
       <c r="F16" s="29" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I16" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="44">
+        <v>45684</v>
+      </c>
+      <c r="K16" s="31">
+        <f ca="1">NETWORKDAYS(J9,J16)</f>
+        <v>66</v>
+      </c>
+      <c r="L16" s="53">
+        <f ca="1">($J$5 - $J$6) / K16</f>
+        <v>1.4393939393939394</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="26"/>
       <c r="C17" t="s">
         <v>29</v>
@@ -2884,7 +3008,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="26"/>
       <c r="C18" t="s">
         <v>87</v>
@@ -2897,23 +3021,23 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="26"/>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D19" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="26"/>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="D20" s="29">
         <v>4</v>
@@ -2923,70 +3047,68 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="26"/>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D21" s="29">
-        <v>2</v>
-      </c>
-      <c r="E21" s="29">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="26"/>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D22" s="29">
         <v>2</v>
       </c>
       <c r="E22" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="26"/>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="D23" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="26"/>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D24" s="29">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="26"/>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="29">
         <v>0.5</v>
@@ -2998,10 +3120,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="26"/>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="D26" s="29">
         <v>0.5</v>
@@ -3009,92 +3131,92 @@
       <c r="E26" s="29">
         <v>0.5</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="46" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="26"/>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="26"/>
-      <c r="C28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="29">
-        <v>16</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="32"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="26"/>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="D29" s="29">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="26"/>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="D30" s="29">
-        <v>1</v>
-      </c>
-      <c r="E30" s="29">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E30" s="29"/>
       <c r="F30" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="26"/>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D31" s="29">
         <v>1</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="29">
+        <v>1</v>
+      </c>
       <c r="F31" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="26"/>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D32" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="29">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E32" s="29"/>
       <c r="F32" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="26"/>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="29">
         <v>0.5</v>
@@ -3103,26 +3225,28 @@
         <v>0.5</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="26"/>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="29">
         <v>0.5</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="E34" s="29">
+        <v>0.5</v>
+      </c>
       <c r="F34" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="26"/>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D35" s="29">
         <v>0.5</v>
@@ -3132,40 +3256,36 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="26"/>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="D36" s="29">
         <v>0.5</v>
       </c>
-      <c r="E36" s="29">
-        <v>0.5</v>
-      </c>
+      <c r="E36" s="29"/>
       <c r="F36" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="26"/>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="D37" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="29">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E37" s="29"/>
       <c r="F37" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="26"/>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D38" s="29">
         <v>0.5</v>
@@ -3174,83 +3294,83 @@
         <v>0.5</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="26"/>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D39" s="29">
         <v>0.5</v>
       </c>
-      <c r="E39" s="29"/>
+      <c r="E39" s="29">
+        <v>0.5</v>
+      </c>
       <c r="F39" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="26"/>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="26"/>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="46" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="26"/>
-      <c r="C41" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="28">
-        <v>1</v>
-      </c>
-      <c r="E41" s="28">
-        <v>1</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="26"/>
-      <c r="C42" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="38"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="26"/>
       <c r="C43" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="29">
-        <v>1</v>
-      </c>
-      <c r="E43" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F43" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="28">
+        <v>1</v>
+      </c>
+      <c r="E43" s="28">
+        <v>1</v>
+      </c>
+      <c r="F43" s="28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="26"/>
       <c r="C44" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E44" s="29">
         <v>0.5</v>
@@ -3259,103 +3379,103 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="26"/>
+      <c r="C45" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="29">
+        <v>1</v>
+      </c>
+      <c r="E45" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="26"/>
-      <c r="C46" t="s">
-        <v>95</v>
+      <c r="C46" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="D46" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F46" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="26"/>
-      <c r="C47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="29">
-        <v>1</v>
-      </c>
-      <c r="E47" s="29">
-        <v>1</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="26"/>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D48" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="23"/>
-      <c r="C50" s="22" t="s">
-        <v>119</v>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="26"/>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="29">
+        <v>1</v>
+      </c>
+      <c r="E49" s="29">
+        <v>1</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="26"/>
+      <c r="C50" t="s">
+        <v>32</v>
       </c>
       <c r="D50" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E50" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F50" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="23"/>
-      <c r="C51" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="29">
-        <v>1</v>
-      </c>
-      <c r="E51" s="29">
-        <v>1</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="26"/>
-      <c r="C52" s="23" t="s">
-        <v>50</v>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="23"/>
+      <c r="C52" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="D52" s="29">
         <v>0.5</v>
@@ -3367,443 +3487,447 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="24"/>
-      <c r="C53" s="24" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="23"/>
+      <c r="C53" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="29">
+        <v>1</v>
+      </c>
+      <c r="E53" s="29">
+        <v>1</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="26"/>
+      <c r="C54" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="24"/>
+      <c r="C55" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D55" s="30">
         <v>2</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30" t="s">
+      <c r="E55" s="30"/>
+      <c r="F55" s="30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="45" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="25"/>
-      <c r="C55" s="22" t="s">
+      <c r="C56" s="38"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="25"/>
+      <c r="C57" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="29">
-        <v>1</v>
-      </c>
-      <c r="E55" s="29">
+      <c r="D57" s="29">
+        <v>1</v>
+      </c>
+      <c r="E57" s="29">
         <v>0.5</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F57" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="26"/>
-      <c r="C56" s="23" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="26"/>
+      <c r="C58" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D58" s="29">
         <v>0.5</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E58" s="35">
         <v>0.5</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="F58" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="23"/>
-      <c r="C57" s="23" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="23"/>
+      <c r="C59" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="29">
-        <v>1</v>
-      </c>
-      <c r="E57" s="35">
-        <v>1</v>
-      </c>
-      <c r="F57" s="35" t="s">
+      <c r="D59" s="29">
+        <v>1</v>
+      </c>
+      <c r="E59" s="35">
+        <v>1</v>
+      </c>
+      <c r="F59" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="45" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60" s="19"/>
+      <c r="B60" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="22"/>
-      <c r="C59" s="22" t="s">
+      <c r="C60" s="38"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="28">
-        <v>1</v>
-      </c>
-      <c r="E59" s="28">
-        <v>1</v>
-      </c>
-      <c r="F59" s="28" t="s">
+      <c r="D61" s="28">
+        <v>1</v>
+      </c>
+      <c r="E61" s="28">
+        <v>1</v>
+      </c>
+      <c r="F61" s="28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="23"/>
-      <c r="C60" s="23" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="23"/>
+      <c r="C62" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="29">
-        <v>1</v>
-      </c>
-      <c r="E60" s="29">
-        <v>1</v>
-      </c>
-      <c r="F60" s="29" t="s">
+      <c r="D62" s="29">
+        <v>1</v>
+      </c>
+      <c r="E62" s="29">
+        <v>1</v>
+      </c>
+      <c r="F62" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="30">
-        <v>3</v>
-      </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B63" s="24"/>
       <c r="C63" s="24" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="D63" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E63" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="F63" s="36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="32"/>
+        <v>3</v>
+      </c>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B64" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="38"/>
       <c r="D64" s="34"/>
       <c r="E64" s="39"/>
       <c r="F64" s="39"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="25"/>
-      <c r="C65" s="22" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="24"/>
+      <c r="C65" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E65" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67" s="25"/>
+      <c r="C67" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D67" s="28">
         <v>2</v>
       </c>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28" t="s">
+      <c r="E67" s="28"/>
+      <c r="F67" s="28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="27"/>
-      <c r="C66" s="20" t="s">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68" s="27"/>
+      <c r="C68" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="30">
+      <c r="D68" s="30">
         <v>2</v>
       </c>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36" t="s">
+      <c r="E68" s="36"/>
+      <c r="F68" s="36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="46" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="25"/>
-      <c r="C68" s="22" t="s">
+      <c r="C69" s="32"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="25"/>
+      <c r="C70" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="28">
-        <v>1</v>
-      </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35" t="s">
+      <c r="D70" s="28">
+        <v>1</v>
+      </c>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="26"/>
-      <c r="C69" s="23" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B71" s="26"/>
+      <c r="C71" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D69" s="29">
-        <v>1</v>
-      </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29" t="s">
+      <c r="D71" s="29">
+        <v>1</v>
+      </c>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="27"/>
-      <c r="C70" s="20" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="27"/>
+      <c r="C72" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="30">
-        <v>1</v>
-      </c>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36" t="s">
+      <c r="D72" s="30">
+        <v>1</v>
+      </c>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="46" t="s">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B73" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="26"/>
-      <c r="C72" t="s">
-        <v>126</v>
-      </c>
-      <c r="D72" s="29">
-        <v>3</v>
-      </c>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="26"/>
-      <c r="C73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="29">
-        <v>4</v>
-      </c>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="32"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74" s="26"/>
       <c r="C74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D74" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74" s="35"/>
       <c r="F74" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="27"/>
-      <c r="C75" s="20" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B75" s="26"/>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="29">
+        <v>4</v>
+      </c>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B76" s="26"/>
+      <c r="C76" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="29">
+        <v>1</v>
+      </c>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B77" s="27"/>
+      <c r="C77" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D75" s="30">
+      <c r="D77" s="30">
         <v>0.5</v>
       </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36" t="s">
+      <c r="E77" s="36"/>
+      <c r="F77" s="36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="46" t="s">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B78" s="46" t="s">
         <v>36</v>
-      </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="26"/>
-      <c r="C77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" s="29">
-        <v>4</v>
-      </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="46" t="s">
-        <v>67</v>
       </c>
       <c r="C78" s="32"/>
       <c r="D78" s="34"/>
       <c r="E78" s="39"/>
       <c r="F78" s="39"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79" s="26"/>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="D79" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79" s="35"/>
       <c r="F79" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="26"/>
-      <c r="C80" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" s="29">
-        <v>1</v>
-      </c>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B80" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81" s="26"/>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D81" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="26"/>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D82" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="35"/>
       <c r="F82" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="26"/>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D83" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="35"/>
       <c r="F83" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B84" s="26"/>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="29">
+        <v>2</v>
+      </c>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="27"/>
-      <c r="C84" s="20" t="s">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B85" s="26"/>
+      <c r="C85" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85" s="29">
+        <v>1</v>
+      </c>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B86" s="27"/>
+      <c r="C86" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="30">
-        <v>1</v>
-      </c>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36" t="s">
+      <c r="D86" s="30">
+        <v>1</v>
+      </c>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="46" t="s">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B87" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="26"/>
-      <c r="C86" t="s">
-        <v>102</v>
-      </c>
-      <c r="D86" s="29">
-        <v>1</v>
-      </c>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" s="26"/>
-      <c r="C87" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87" s="29">
-        <v>1</v>
-      </c>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C87" s="32"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B88" s="26"/>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D88" s="29">
         <v>1</v>
@@ -3813,175 +3937,201 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="26"/>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D89" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E89" s="35"/>
       <c r="F89" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90" s="27"/>
-      <c r="C90" s="20" t="s">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B90" s="26"/>
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="29">
+        <v>1</v>
+      </c>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B91" s="26"/>
+      <c r="C91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="29">
+        <v>5</v>
+      </c>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B92" s="27"/>
+      <c r="C92" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D90" s="30">
+      <c r="D92" s="30">
         <v>5</v>
       </c>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36" t="s">
+      <c r="E92" s="36"/>
+      <c r="F92" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91" s="46" t="s">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B93" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="25"/>
-      <c r="C92" s="18" t="s">
+      <c r="C93" s="32"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B94" s="25"/>
+      <c r="C94" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D92" s="28">
+      <c r="D94" s="28">
         <v>0.5</v>
       </c>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37" t="s">
+      <c r="E94" s="37"/>
+      <c r="F94" s="37" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93" s="26"/>
-      <c r="C93" t="s">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B95" s="26"/>
+      <c r="C95" t="s">
         <v>106</v>
       </c>
-      <c r="D93" s="29">
+      <c r="D95" s="29">
         <v>0.5</v>
       </c>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35" t="s">
+      <c r="E95" s="35"/>
+      <c r="F95" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" s="26"/>
-      <c r="C94" t="s">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B96" s="26"/>
+      <c r="C96" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="29">
+      <c r="D96" s="29">
         <v>0.5</v>
       </c>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35" t="s">
+      <c r="E96" s="35"/>
+      <c r="F96" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="27"/>
-      <c r="C95" s="20" t="s">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B97" s="27"/>
+      <c r="C97" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D95" s="30">
+      <c r="D97" s="30">
         <v>2</v>
       </c>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36" t="s">
+      <c r="E97" s="36"/>
+      <c r="F97" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B96" s="46" t="s">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B98" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="26"/>
-      <c r="C97" s="22" t="s">
+      <c r="C98" s="32"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B99" s="26"/>
+      <c r="C99" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="28">
+      <c r="D99" s="28">
         <v>0.5</v>
       </c>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37" t="s">
+      <c r="E99" s="37"/>
+      <c r="F99" s="37" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="26"/>
-      <c r="C98" s="23" t="s">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B100" s="26"/>
+      <c r="C100" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="29">
+      <c r="D100" s="29">
         <v>0.5</v>
       </c>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35" t="s">
+      <c r="E100" s="35"/>
+      <c r="F100" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" s="26"/>
-      <c r="C99" s="23" t="s">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B101" s="26"/>
+      <c r="C101" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D99" s="29">
-        <v>1</v>
-      </c>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35" t="s">
+      <c r="D101" s="29">
+        <v>1</v>
+      </c>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" s="27"/>
-      <c r="C100" s="24" t="s">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B102" s="27"/>
+      <c r="C102" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D100" s="30">
+      <c r="D102" s="30">
         <v>2</v>
       </c>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36" t="s">
+      <c r="E102" s="36"/>
+      <c r="F102" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" s="24" t="s">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B103" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="30">
-        <v>1</v>
-      </c>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="45" t="s">
+      <c r="C103" s="24"/>
+      <c r="D103" s="30">
+        <v>1</v>
+      </c>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B104" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="34">
-        <v>3</v>
-      </c>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39" t="s">
+      <c r="C104" s="38"/>
+      <c r="D104" s="34">
+        <v>2</v>
+      </c>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3998,9 +4148,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -4008,27 +4158,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>80</v>
       </c>
@@ -4045,9 +4195,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -4055,7 +4205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>85</v>
       </c>
@@ -4067,6 +4217,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4301,17 +4462,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4322,19 +4472,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4347,6 +4484,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>

--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AC61CC-B71A-40C5-B3F5-CC7AE0D19B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31327CCF-C168-43EE-BE47-F4CEF7BA0ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
-    <sheet name="コピー元" sheetId="1" r:id="rId1"/>
-    <sheet name="Uedaが往くRE" sheetId="4" r:id="rId2"/>
-    <sheet name="タスク" sheetId="5" r:id="rId3"/>
-    <sheet name="アルファ" sheetId="6" r:id="rId4"/>
-    <sheet name="ベータ" sheetId="7" r:id="rId5"/>
-    <sheet name="マスタ" sheetId="8" r:id="rId6"/>
+    <sheet name="Uedaが往くRE" sheetId="4" r:id="rId1"/>
+    <sheet name="タスク" sheetId="5" r:id="rId2"/>
+    <sheet name="アルファ" sheetId="6" r:id="rId3"/>
+    <sheet name="ベータ" sheetId="7" r:id="rId4"/>
+    <sheet name="マスタ" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,37 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="166">
-  <si>
-    <r>
-      <t xml:space="preserve">製作期間：○/○～○/○
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※以降、挿入で増やしていってください。</t>
-    </r>
-    <rPh sb="0" eb="4">
-      <t>セイサクキカン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="164">
   <si>
     <t>プロト</t>
     <phoneticPr fontId="1"/>
@@ -84,10 +53,6 @@
   </si>
   <si>
     <t>マスター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○/○～○/○</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1238,7 +1203,7 @@
     <rPh sb="7" eb="8">
       <t>ノゾ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>一日の消費コスト</t>
@@ -1248,7 +1213,7 @@
     <rPh sb="3" eb="5">
       <t>ショウヒ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1258,7 +1223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,14 +1244,6 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1599,7 +1556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1701,10 +1658,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2036,122 +1993,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586594B2-02F1-43D3-8FC1-4BC02D3EB21B}">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="45.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="87.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A72A58F-B783-425B-B8E6-CAF69CAAEACA}">
   <dimension ref="A1:K43"/>
   <sheetViews>
@@ -2165,24 +2006,24 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2190,51 +2031,51 @@
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
@@ -2243,87 +2084,87 @@
     </row>
     <row r="5" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="14">
         <v>45570</v>
@@ -2331,17 +2172,17 @@
     </row>
     <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A16" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:5" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
@@ -2349,7 +2190,7 @@
     </row>
     <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="15"/>
@@ -2357,7 +2198,7 @@
     </row>
     <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="14"/>
     </row>
@@ -2369,7 +2210,7 @@
     </row>
     <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="14"/>
     </row>
@@ -2381,7 +2222,7 @@
     </row>
     <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="15"/>
@@ -2390,31 +2231,31 @@
     </row>
     <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="14"/>
     </row>
@@ -2426,7 +2267,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="2"/>
     </row>
@@ -2436,7 +2277,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="3"/>
     </row>
@@ -2446,7 +2287,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="4"/>
     </row>
@@ -2461,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7518A40D-78BC-4276-81C9-4E538AA5EE4C}">
   <dimension ref="A2:D54"/>
   <sheetViews>
@@ -2471,242 +2312,242 @@
   <sheetData>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2716,7 +2557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
   <dimension ref="A4:L104"/>
   <sheetViews>
@@ -2737,24 +2578,24 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="31"/>
       <c r="C4" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="34">
@@ -2764,10 +2605,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J5" s="33">
         <f>SUM(D5:D104)</f>
@@ -2776,7 +2617,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="34">
@@ -2786,35 +2627,35 @@
         <v>6</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J6" s="33">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="47"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="I7" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J7" s="21">
         <f ca="1">NETWORKDAYS(J8,J9)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="26"/>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="29">
         <v>2</v>
@@ -2823,10 +2664,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J8" s="44">
         <v>45554</v>
@@ -2835,7 +2676,7 @@
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="26"/>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="29">
         <v>3</v>
@@ -2844,74 +2685,74 @@
         <v>3</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J9" s="44">
         <f ca="1">TODAY()</f>
-        <v>45593</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="26"/>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="29">
         <v>0.5</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="26"/>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="29">
         <v>0.5</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="26"/>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="29">
         <v>2</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="K13" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L13" s="52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="26"/>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="29">
         <v>1</v>
@@ -2920,27 +2761,27 @@
         <v>1</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J14" s="44">
         <v>45646</v>
       </c>
       <c r="K14" s="31">
         <f ca="1">NETWORKDAYS(J9,J14)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L14" s="53">
         <f ca="1">($J$5 - $J$6) / K14</f>
-        <v>2.375</v>
+        <v>2.3846153846153846</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="26"/>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="29">
         <v>1</v>
@@ -2949,27 +2790,27 @@
         <v>1</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J15" s="42">
         <v>45670</v>
       </c>
       <c r="K15" s="31">
         <f ca="1">NETWORKDAYS(J9,J15)</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" s="53">
         <f ca="1">($J$5 - $J$6) / K15</f>
-        <v>1.6964285714285714</v>
+        <v>1.6909090909090909</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="26"/>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="29">
         <v>1</v>
@@ -2978,92 +2819,96 @@
         <v>1</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J16" s="44">
         <v>45684</v>
       </c>
       <c r="K16" s="31">
         <f ca="1">NETWORKDAYS(J9,J16)</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" s="53">
         <f ca="1">($J$5 - $J$6) / K16</f>
-        <v>1.4393939393939394</v>
+        <v>1.4307692307692308</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="26"/>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="29">
         <v>1</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="29">
+        <v>2</v>
+      </c>
       <c r="F17" s="29" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="26"/>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="29">
         <v>1</v>
       </c>
-      <c r="E18" s="29"/>
+      <c r="E18" s="29">
+        <v>0.3</v>
+      </c>
       <c r="F18" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="26"/>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" s="29">
         <v>1</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="26"/>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="29">
         <v>4</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="26"/>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="29">
         <v>4</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="26"/>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="29">
         <v>2</v>
@@ -3072,13 +2917,13 @@
         <v>2</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="26"/>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D23" s="29">
         <v>2</v>
@@ -3087,13 +2932,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="26"/>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="29">
         <v>3</v>
@@ -3102,13 +2947,13 @@
         <v>2</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="26"/>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="29">
         <v>0.5</v>
@@ -3117,13 +2962,13 @@
         <v>0.5</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="26"/>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="29">
         <v>0.5</v>
@@ -3132,13 +2977,13 @@
         <v>0.5</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="26"/>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="29">
         <v>0.5</v>
@@ -3147,12 +2992,12 @@
         <v>0.5</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="34"/>
@@ -3162,33 +3007,33 @@
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="26"/>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" s="29">
         <v>16</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="26"/>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" s="29">
         <v>2</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="26"/>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" s="29">
         <v>1</v>
@@ -3197,26 +3042,26 @@
         <v>1</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="26"/>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" s="29">
         <v>1</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="26"/>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" s="29">
         <v>0.5</v>
@@ -3225,13 +3070,13 @@
         <v>0.5</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="26"/>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" s="29">
         <v>0.5</v>
@@ -3240,52 +3085,52 @@
         <v>0.5</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="26"/>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="29">
         <v>0.5</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="26"/>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36" s="29">
         <v>0.5</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="26"/>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D37" s="29">
         <v>1</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="26"/>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D38" s="29">
         <v>0.5</v>
@@ -3294,13 +3139,13 @@
         <v>0.5</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="26"/>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" s="29">
         <v>0.5</v>
@@ -3309,13 +3154,13 @@
         <v>0.5</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="26"/>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D40" s="29">
         <v>0.5</v>
@@ -3324,25 +3169,25 @@
         <v>0.5</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="26"/>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D41" s="29">
         <v>0.5</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="34"/>
@@ -3352,7 +3197,7 @@
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="26"/>
       <c r="C43" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="28">
         <v>1</v>
@@ -3361,13 +3206,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="26"/>
       <c r="C44" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="29">
         <v>0.5</v>
@@ -3376,13 +3221,13 @@
         <v>0.5</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="26"/>
       <c r="C45" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="29">
         <v>1</v>
@@ -3391,13 +3236,13 @@
         <v>0.5</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="26"/>
       <c r="C46" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="29">
         <v>1</v>
@@ -3406,12 +3251,12 @@
         <v>0.5</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C47" s="32"/>
       <c r="D47" s="34"/>
@@ -3421,7 +3266,7 @@
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="26"/>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48" s="29">
         <v>2</v>
@@ -3430,13 +3275,13 @@
         <v>2</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B49" s="26"/>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D49" s="29">
         <v>1</v>
@@ -3445,13 +3290,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B50" s="26"/>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D50" s="29">
         <v>1</v>
@@ -3460,12 +3305,12 @@
         <v>1</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B51" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="34"/>
@@ -3475,7 +3320,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B52" s="23"/>
       <c r="C52" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D52" s="29">
         <v>0.5</v>
@@ -3484,13 +3329,13 @@
         <v>0.5</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B53" s="23"/>
       <c r="C53" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D53" s="29">
         <v>1</v>
@@ -3499,13 +3344,13 @@
         <v>1</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B54" s="26"/>
       <c r="C54" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D54" s="29">
         <v>0.5</v>
@@ -3514,25 +3359,25 @@
         <v>0.5</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B55" s="24"/>
       <c r="C55" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D55" s="30">
         <v>2</v>
       </c>
       <c r="E55" s="30"/>
       <c r="F55" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B56" s="45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="34"/>
@@ -3542,7 +3387,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B57" s="25"/>
       <c r="C57" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D57" s="29">
         <v>1</v>
@@ -3551,13 +3396,13 @@
         <v>0.5</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B58" s="26"/>
       <c r="C58" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D58" s="29">
         <v>0.5</v>
@@ -3566,13 +3411,13 @@
         <v>0.5</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B59" s="23"/>
       <c r="C59" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D59" s="29">
         <v>1</v>
@@ -3581,13 +3426,13 @@
         <v>1</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="19"/>
       <c r="B60" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="34"/>
@@ -3598,7 +3443,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B61" s="22"/>
       <c r="C61" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D61" s="28">
         <v>1</v>
@@ -3607,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B62" s="23"/>
       <c r="C62" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D62" s="29">
         <v>1</v>
@@ -3622,25 +3467,25 @@
         <v>1</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B63" s="24"/>
       <c r="C63" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D63" s="30">
         <v>3</v>
       </c>
       <c r="E63" s="30"/>
       <c r="F63" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B64" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="34"/>
@@ -3650,7 +3495,7 @@
     <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65" s="24"/>
       <c r="C65" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D65" s="30">
         <v>0.5</v>
@@ -3659,12 +3504,12 @@
         <v>0.5</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" s="46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="32"/>
       <c r="D66" s="34"/>
@@ -3674,32 +3519,32 @@
     <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B67" s="25"/>
       <c r="C67" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D67" s="28">
         <v>2</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" s="27"/>
       <c r="C68" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D68" s="30">
         <v>2</v>
       </c>
       <c r="E68" s="36"/>
       <c r="F68" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" s="46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C69" s="32"/>
       <c r="D69" s="34"/>
@@ -3709,45 +3554,45 @@
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="25"/>
       <c r="C70" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D70" s="28">
         <v>1</v>
       </c>
       <c r="E70" s="35"/>
       <c r="F70" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" s="26"/>
       <c r="C71" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D71" s="29">
         <v>1</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="27"/>
       <c r="C72" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72" s="30">
         <v>1</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="34"/>
@@ -3757,58 +3602,58 @@
     <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74" s="26"/>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D74" s="29">
         <v>3</v>
       </c>
       <c r="E74" s="35"/>
       <c r="F74" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="26"/>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D75" s="29">
         <v>4</v>
       </c>
       <c r="E75" s="35"/>
       <c r="F75" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="26"/>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D76" s="29">
         <v>1</v>
       </c>
       <c r="E76" s="35"/>
       <c r="F76" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77" s="27"/>
       <c r="C77" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D77" s="30">
         <v>0.5</v>
       </c>
       <c r="E77" s="36"/>
       <c r="F77" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C78" s="32"/>
       <c r="D78" s="34"/>
@@ -3818,19 +3663,19 @@
     <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79" s="26"/>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D79" s="29">
         <v>4</v>
       </c>
       <c r="E79" s="35"/>
       <c r="F79" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80" s="46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C80" s="32"/>
       <c r="D80" s="34"/>
@@ -3840,84 +3685,84 @@
     <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81" s="26"/>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D81" s="29">
         <v>1</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="26"/>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D82" s="29">
         <v>1</v>
       </c>
       <c r="E82" s="35"/>
       <c r="F82" s="35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="26"/>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D83" s="29">
         <v>2</v>
       </c>
       <c r="E83" s="35"/>
       <c r="F83" s="35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="26"/>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D84" s="29">
         <v>2</v>
       </c>
       <c r="E84" s="35"/>
       <c r="F84" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="26"/>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D85" s="29">
         <v>1</v>
       </c>
       <c r="E85" s="35"/>
       <c r="F85" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86" s="27"/>
       <c r="C86" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D86" s="30">
         <v>1</v>
       </c>
       <c r="E86" s="36"/>
       <c r="F86" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C87" s="32"/>
       <c r="D87" s="34"/>
@@ -3927,71 +3772,71 @@
     <row r="88" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B88" s="26"/>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D88" s="29">
         <v>1</v>
       </c>
       <c r="E88" s="35"/>
       <c r="F88" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="26"/>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D89" s="29">
         <v>1</v>
       </c>
       <c r="E89" s="35"/>
       <c r="F89" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="26"/>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D90" s="29">
         <v>1</v>
       </c>
       <c r="E90" s="35"/>
       <c r="F90" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91" s="26"/>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D91" s="29">
         <v>5</v>
       </c>
       <c r="E91" s="35"/>
       <c r="F91" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92" s="27"/>
       <c r="C92" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D92" s="30">
         <v>5</v>
       </c>
       <c r="E92" s="36"/>
       <c r="F92" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C93" s="32"/>
       <c r="D93" s="34"/>
@@ -4001,58 +3846,58 @@
     <row r="94" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B94" s="25"/>
       <c r="C94" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D94" s="28">
         <v>0.5</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B95" s="26"/>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D95" s="29">
         <v>0.5</v>
       </c>
       <c r="E95" s="35"/>
       <c r="F95" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96" s="26"/>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D96" s="29">
         <v>0.5</v>
       </c>
       <c r="E96" s="35"/>
       <c r="F96" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97" s="27"/>
       <c r="C97" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D97" s="30">
         <v>2</v>
       </c>
       <c r="E97" s="36"/>
       <c r="F97" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C98" s="32"/>
       <c r="D98" s="34"/>
@@ -4062,58 +3907,58 @@
     <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="26"/>
       <c r="C99" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D99" s="28">
         <v>0.5</v>
       </c>
       <c r="E99" s="37"/>
       <c r="F99" s="37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="26"/>
       <c r="C100" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D100" s="29">
         <v>0.5</v>
       </c>
       <c r="E100" s="35"/>
       <c r="F100" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="26"/>
       <c r="C101" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D101" s="29">
         <v>1</v>
       </c>
       <c r="E101" s="35"/>
       <c r="F101" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102" s="27"/>
       <c r="C102" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D102" s="30">
         <v>2</v>
       </c>
       <c r="E102" s="36"/>
       <c r="F102" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103" s="54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C103" s="24"/>
       <c r="D103" s="30">
@@ -4124,7 +3969,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C104" s="38"/>
       <c r="D104" s="34">
@@ -4132,7 +3977,7 @@
       </c>
       <c r="E104" s="39"/>
       <c r="F104" s="39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4142,7 +3987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F661C2E-90CF-4FBD-9331-DFED4A467EE8}">
   <dimension ref="A2:B7"/>
   <sheetViews>
@@ -4152,35 +3997,35 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4189,7 +4034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2346308A-B938-4E33-9CB4-022FFF758DC1}">
   <dimension ref="A2:B3"/>
   <sheetViews>
@@ -4199,15 +4044,15 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4217,17 +4062,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4462,6 +4296,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4472,19 +4317,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4504,6 +4336,19 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>

--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31327CCF-C168-43EE-BE47-F4CEF7BA0ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB79E0-1A10-43D0-B2C2-1C3747988414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -1166,13 +1166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>被弾</t>
-    <rPh sb="0" eb="2">
-      <t>ヒダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
@@ -1214,6 +1207,13 @@
       <t>ショウヒ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>被ダメージ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2633,7 +2633,7 @@
         <v>139</v>
       </c>
       <c r="J6" s="33">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2667,7 +2667,7 @@
         <v>121</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J8" s="44">
         <v>45554</v>
@@ -2688,7 +2688,7 @@
         <v>121</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J9" s="44">
         <f ca="1">TODAY()</f>
@@ -2743,10 +2743,10 @@
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="K13" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="52" t="s">
         <v>162</v>
-      </c>
-      <c r="L13" s="52" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="L14" s="53">
         <f ca="1">($J$5 - $J$6) / K14</f>
-        <v>2.3846153846153846</v>
+        <v>2.2820512820512819</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="L15" s="53">
         <f ca="1">($J$5 - $J$6) / K15</f>
-        <v>1.6909090909090909</v>
+        <v>1.6181818181818182</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="L16" s="53">
         <f ca="1">($J$5 - $J$6) / K16</f>
-        <v>1.4307692307692308</v>
+        <v>1.3692307692307693</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
@@ -2860,16 +2860,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="26"/>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D19" s="29">
         <v>1</v>
@@ -2947,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
@@ -3096,9 +3096,11 @@
       <c r="D35" s="29">
         <v>0.5</v>
       </c>
-      <c r="E35" s="29"/>
+      <c r="E35" s="29">
+        <v>0.5</v>
+      </c>
       <c r="F35" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
@@ -3109,15 +3111,17 @@
       <c r="D36" s="29">
         <v>0.5</v>
       </c>
-      <c r="E36" s="29"/>
+      <c r="E36" s="29">
+        <v>0.5</v>
+      </c>
       <c r="F36" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="26"/>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D37" s="29">
         <v>1</v>
@@ -3139,7 +3143,7 @@
         <v>0.5</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
@@ -4062,6 +4066,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4296,42 +4320,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4350,9 +4342,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB79E0-1A10-43D0-B2C2-1C3747988414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E200CED-CFAB-424C-97B9-ABD0CAF670B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="165">
   <si>
     <t>プロト</t>
     <phoneticPr fontId="1"/>
@@ -1212,6 +1212,16 @@
     <t>被ダメージ</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁追加</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2559,7 +2569,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
-  <dimension ref="A4:L104"/>
+  <dimension ref="A4:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2611,8 +2621,8 @@
         <v>138</v>
       </c>
       <c r="J5" s="33">
-        <f>SUM(D5:D104)</f>
-        <v>136</v>
+        <f>SUM(D5:D105)</f>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
@@ -2633,7 +2643,7 @@
         <v>139</v>
       </c>
       <c r="J6" s="33">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2649,7 +2659,7 @@
       </c>
       <c r="J7" s="21">
         <f ca="1">NETWORKDAYS(J8,J9)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
@@ -2692,7 +2702,7 @@
       </c>
       <c r="J9" s="44">
         <f ca="1">TODAY()</f>
-        <v>45594</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
@@ -2771,11 +2781,11 @@
       </c>
       <c r="K14" s="31">
         <f ca="1">NETWORKDAYS(J9,J14)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="53">
         <f ca="1">($J$5 - $J$6) / K14</f>
-        <v>2.2820512820512819</v>
+        <v>2.2894736842105261</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -2800,11 +2810,11 @@
       </c>
       <c r="K15" s="31">
         <f ca="1">NETWORKDAYS(J9,J15)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="53">
         <f ca="1">($J$5 - $J$6) / K15</f>
-        <v>1.6181818181818182</v>
+        <v>1.6111111111111112</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -2829,11 +2839,11 @@
       </c>
       <c r="K16" s="31">
         <f ca="1">NETWORKDAYS(J9,J16)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" s="53">
         <f ca="1">($J$5 - $J$6) / K16</f>
-        <v>1.3692307692307693</v>
+        <v>1.359375</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
@@ -3025,9 +3035,11 @@
       <c r="D30" s="29">
         <v>2</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="29">
+        <v>1</v>
+      </c>
       <c r="F30" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
@@ -3053,9 +3065,11 @@
       <c r="D32" s="29">
         <v>1</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="29">
+        <v>0.5</v>
+      </c>
       <c r="F32" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
@@ -3475,154 +3489,154 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="29">
+        <v>1</v>
+      </c>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="30">
+      <c r="D64" s="30">
         <v>3</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30" t="s">
+      <c r="E64" s="30"/>
+      <c r="F64" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B64" s="45" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="24"/>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="38"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="24"/>
+      <c r="C66" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D65" s="30">
+      <c r="D66" s="30">
         <v>0.5</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E66" s="36">
         <v>0.5</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F66" s="36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="46" t="s">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="25"/>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="32"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68" s="25"/>
+      <c r="C68" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="28">
+      <c r="D68" s="28">
         <v>2</v>
       </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28" t="s">
+      <c r="E68" s="28"/>
+      <c r="F68" s="28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="27"/>
-      <c r="C68" s="20" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69" s="27"/>
+      <c r="C69" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D69" s="30">
         <v>2</v>
       </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36" t="s">
+      <c r="E69" s="36"/>
+      <c r="F69" s="36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B69" s="46" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="25"/>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="32"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B71" s="25"/>
+      <c r="C71" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="28">
-        <v>1</v>
-      </c>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35" t="s">
+      <c r="D71" s="28">
+        <v>1</v>
+      </c>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="26"/>
-      <c r="C71" s="23" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="26"/>
+      <c r="C72" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D71" s="29">
-        <v>1</v>
-      </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29" t="s">
+      <c r="D72" s="29">
+        <v>1</v>
+      </c>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="27"/>
-      <c r="C72" s="20" t="s">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B73" s="27"/>
+      <c r="C73" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="30">
-        <v>1</v>
-      </c>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36" t="s">
+      <c r="D73" s="30">
+        <v>1</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="46" t="s">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B74" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B74" s="26"/>
-      <c r="C74" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" s="29">
-        <v>3</v>
-      </c>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35" t="s">
-        <v>128</v>
-      </c>
+      <c r="C74" s="32"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="26"/>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="D75" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" s="35"/>
       <c r="F75" s="35" t="s">
@@ -3632,10 +3646,10 @@
     <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="26"/>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D76" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E76" s="35"/>
       <c r="F76" s="35" t="s">
@@ -3643,66 +3657,66 @@
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B77" s="27"/>
-      <c r="C77" s="20" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="29">
+        <v>1</v>
+      </c>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B78" s="27"/>
+      <c r="C78" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="30">
+      <c r="D78" s="30">
         <v>0.5</v>
       </c>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36" t="s">
+      <c r="E78" s="36"/>
+      <c r="F78" s="36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B78" s="46" t="s">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B79" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B79" s="26"/>
-      <c r="C79" t="s">
+      <c r="C79" s="32"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B80" s="26"/>
+      <c r="C80" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D80" s="29">
         <v>4</v>
       </c>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35" t="s">
+      <c r="E80" s="35"/>
+      <c r="F80" s="35" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B80" s="46" t="s">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B81" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B81" s="26"/>
-      <c r="C81" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" s="29">
-        <v>1</v>
-      </c>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35" t="s">
-        <v>134</v>
-      </c>
+      <c r="C81" s="32"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="26"/>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D82" s="29">
         <v>1</v>
@@ -3715,10 +3729,10 @@
     <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="26"/>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="35"/>
       <c r="F83" s="35" t="s">
@@ -3728,23 +3742,23 @@
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="26"/>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D84" s="29">
         <v>2</v>
       </c>
       <c r="E84" s="35"/>
       <c r="F84" s="35" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="26"/>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="D85" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" s="35"/>
       <c r="F85" s="35" t="s">
@@ -3752,44 +3766,44 @@
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B86" s="27"/>
-      <c r="C86" s="20" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="29">
+        <v>1</v>
+      </c>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B87" s="27"/>
+      <c r="C87" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D86" s="30">
-        <v>1</v>
-      </c>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36" t="s">
+      <c r="D87" s="30">
+        <v>1</v>
+      </c>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B87" s="46" t="s">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B88" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B88" s="26"/>
-      <c r="C88" t="s">
-        <v>100</v>
-      </c>
-      <c r="D88" s="29">
-        <v>1</v>
-      </c>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35" t="s">
-        <v>128</v>
-      </c>
+      <c r="C88" s="32"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="26"/>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D89" s="29">
         <v>1</v>
@@ -3802,7 +3816,7 @@
     <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="26"/>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D90" s="29">
         <v>1</v>
@@ -3815,10 +3829,10 @@
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91" s="26"/>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D91" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E91" s="35"/>
       <c r="F91" s="35" t="s">
@@ -3826,57 +3840,57 @@
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B92" s="27"/>
-      <c r="C92" s="20" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" s="29">
+        <v>5</v>
+      </c>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B93" s="27"/>
+      <c r="C93" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="30">
+      <c r="D93" s="30">
         <v>5</v>
       </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36" t="s">
+      <c r="E93" s="36"/>
+      <c r="F93" s="36" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B93" s="46" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B94" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B94" s="25"/>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="32"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B95" s="25"/>
+      <c r="C95" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D94" s="28">
+      <c r="D95" s="28">
         <v>0.5</v>
       </c>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B95" s="26"/>
-      <c r="C95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D95" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35" t="s">
+      <c r="E95" s="37"/>
+      <c r="F95" s="37" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96" s="26"/>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D96" s="29">
         <v>0.5</v>
@@ -3887,60 +3901,60 @@
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B97" s="27"/>
-      <c r="C97" s="20" t="s">
+      <c r="B97" s="26"/>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B98" s="27"/>
+      <c r="C98" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D97" s="30">
+      <c r="D98" s="30">
         <v>2</v>
       </c>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36" t="s">
+      <c r="E98" s="36"/>
+      <c r="F98" s="36" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B98" s="46" t="s">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B99" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B99" s="26"/>
-      <c r="C99" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D99" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37" t="s">
-        <v>128</v>
-      </c>
+      <c r="C99" s="32"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="26"/>
-      <c r="C100" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D100" s="29">
+      <c r="C100" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100" s="28">
         <v>0.5</v>
       </c>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35" t="s">
+      <c r="E100" s="37"/>
+      <c r="F100" s="37" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="26"/>
       <c r="C101" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D101" s="29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E101" s="35"/>
       <c r="F101" s="35" t="s">
@@ -3948,39 +3962,52 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B102" s="27"/>
-      <c r="C102" s="24" t="s">
+      <c r="B102" s="26"/>
+      <c r="C102" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="29">
+        <v>1</v>
+      </c>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B103" s="27"/>
+      <c r="C103" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D102" s="30">
+      <c r="D103" s="30">
         <v>2</v>
       </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36" t="s">
+      <c r="E103" s="36"/>
+      <c r="F103" s="36" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B103" s="54" t="s">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B104" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="30">
-        <v>1</v>
-      </c>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B104" s="45" t="s">
+      <c r="C104" s="24"/>
+      <c r="D104" s="30">
+        <v>1</v>
+      </c>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B105" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="34">
+      <c r="C105" s="38"/>
+      <c r="D105" s="34">
         <v>2</v>
       </c>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39" t="s">
+      <c r="E105" s="39"/>
+      <c r="F105" s="39" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4066,26 +4093,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4320,10 +4327,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4342,21 +4381,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E200CED-CFAB-424C-97B9-ABD0CAF670B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51C40D8-F56F-4C7F-A287-76AD9097E039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -2571,7 +2571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
   <dimension ref="A4:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2643,7 +2643,7 @@
         <v>139</v>
       </c>
       <c r="J6" s="33">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="L14" s="53">
         <f ca="1">($J$5 - $J$6) / K14</f>
-        <v>2.2894736842105261</v>
+        <v>2.236842105263158</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="L15" s="53">
         <f ca="1">($J$5 - $J$6) / K15</f>
-        <v>1.6111111111111112</v>
+        <v>1.5740740740740742</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="L16" s="53">
         <f ca="1">($J$5 - $J$6) / K16</f>
-        <v>1.359375</v>
+        <v>1.328125</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
@@ -2884,9 +2884,11 @@
       <c r="D19" s="29">
         <v>1</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="29">
+        <v>0.5</v>
+      </c>
       <c r="F19" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
@@ -3140,9 +3142,11 @@
       <c r="D37" s="29">
         <v>1</v>
       </c>
-      <c r="E37" s="29"/>
+      <c r="E37" s="29">
+        <v>0.5</v>
+      </c>
       <c r="F37" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">

--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51C40D8-F56F-4C7F-A287-76AD9097E039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63227E61-EC80-4F00-9590-5A90CF88F3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Uedaが往くRE" sheetId="4" r:id="rId1"/>
@@ -2571,7 +2571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
   <dimension ref="A4:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2659,7 +2661,7 @@
       </c>
       <c r="J7" s="21">
         <f ca="1">NETWORKDAYS(J8,J9)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
@@ -2702,7 +2704,7 @@
       </c>
       <c r="J9" s="44">
         <f ca="1">TODAY()</f>
-        <v>45595</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
@@ -2781,11 +2783,11 @@
       </c>
       <c r="K14" s="31">
         <f ca="1">NETWORKDAYS(J9,J14)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L14" s="53">
         <f ca="1">($J$5 - $J$6) / K14</f>
-        <v>2.236842105263158</v>
+        <v>2.2972972972972974</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -2810,11 +2812,11 @@
       </c>
       <c r="K15" s="31">
         <f ca="1">NETWORKDAYS(J9,J15)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="53">
         <f ca="1">($J$5 - $J$6) / K15</f>
-        <v>1.5740740740740742</v>
+        <v>1.6037735849056605</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -2839,11 +2841,11 @@
       </c>
       <c r="K16" s="31">
         <f ca="1">NETWORKDAYS(J9,J16)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L16" s="53">
         <f ca="1">($J$5 - $J$6) / K16</f>
-        <v>1.328125</v>
+        <v>1.3492063492063493</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
@@ -4097,6 +4099,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4331,42 +4353,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4385,9 +4375,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63227E61-EC80-4F00-9590-5A90CF88F3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC3D139-A893-457E-835B-79F3E25EAEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Uedaが往くRE" sheetId="4" r:id="rId1"/>
@@ -2569,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
-  <dimension ref="A4:L105"/>
+  <dimension ref="A3:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2587,130 +2587,143 @@
     <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="31"/>
+      <c r="C3" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="31"/>
-      <c r="C4" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" t="s">
-        <v>118</v>
+      <c r="B4" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="34">
+        <v>4</v>
+      </c>
+      <c r="E4" s="34">
+        <v>4</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="33">
+        <f>SUM(D4:D104)</f>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="46" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="46" t="s">
-        <v>138</v>
+      <c r="I5" s="49" t="s">
+        <v>139</v>
       </c>
       <c r="J5" s="33">
-        <f>SUM(D5:D105)</f>
-        <v>137</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="34">
-        <v>6</v>
-      </c>
-      <c r="E6" s="34">
-        <v>6</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="J6" s="33">
-        <v>52</v>
+        <v>149</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="I6" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="21">
+        <f ca="1">NETWORKDAYS(J7,J8)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="I7" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="21">
-        <f ca="1">NETWORKDAYS(J8,J9)</f>
-        <v>31</v>
+      <c r="B7" s="26"/>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="44">
+        <v>45554</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="26"/>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D8" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="29">
-        <v>2</v>
-      </c>
-      <c r="F8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>121</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J8" s="44">
-        <v>45554</v>
+        <f ca="1">TODAY()</f>
+        <v>45597</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="26"/>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D9" s="29">
-        <v>3</v>
-      </c>
-      <c r="E9" s="29">
-        <v>3</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" s="44">
-        <f ca="1">TODAY()</f>
-        <v>45596</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="26"/>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" s="29">
         <v>0.5</v>
@@ -2723,10 +2736,10 @@
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="26"/>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D11" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
@@ -2734,37 +2747,53 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="26"/>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="29">
-        <v>2</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29" t="s">
-        <v>129</v>
+      <c r="B12" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="K12" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="K13" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="L13" s="52" t="s">
-        <v>162</v>
+      <c r="B13" s="26"/>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="44">
+        <v>45646</v>
+      </c>
+      <c r="K13" s="31">
+        <f ca="1">NETWORKDAYS(J8,J13)</f>
+        <v>36</v>
+      </c>
+      <c r="L13" s="53">
+        <f ca="1">($J$4 - $J$5) / K13</f>
+        <v>2.3611111111111112</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="26"/>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="D14" s="29">
         <v>1</v>
@@ -2772,28 +2801,28 @@
       <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" s="44">
-        <v>45646</v>
+      <c r="F14" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="42">
+        <v>45670</v>
       </c>
       <c r="K14" s="31">
-        <f ca="1">NETWORKDAYS(J9,J14)</f>
-        <v>37</v>
+        <f ca="1">NETWORKDAYS(J8,J14)</f>
+        <v>52</v>
       </c>
       <c r="L14" s="53">
-        <f ca="1">($J$5 - $J$6) / K14</f>
-        <v>2.2972972972972974</v>
+        <f ca="1">($J$4 - $J$5) / K14</f>
+        <v>1.6346153846153846</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="26"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="29">
         <v>1</v>
@@ -2804,60 +2833,46 @@
       <c r="F15" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="42">
-        <v>45670</v>
+      <c r="I15" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="44">
+        <v>45684</v>
       </c>
       <c r="K15" s="31">
-        <f ca="1">NETWORKDAYS(J9,J15)</f>
-        <v>53</v>
+        <f ca="1">NETWORKDAYS(J8,J15)</f>
+        <v>62</v>
       </c>
       <c r="L15" s="53">
-        <f ca="1">($J$5 - $J$6) / K15</f>
-        <v>1.6037735849056605</v>
+        <f ca="1">($J$4 - $J$5) / K15</f>
+        <v>1.3709677419354838</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="26"/>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="29">
         <v>1</v>
       </c>
       <c r="E16" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="44">
-        <v>45684</v>
-      </c>
-      <c r="K16" s="31">
-        <f ca="1">NETWORKDAYS(J9,J16)</f>
-        <v>63</v>
-      </c>
-      <c r="L16" s="53">
-        <f ca="1">($J$5 - $J$6) / K16</f>
-        <v>1.3492063492063493</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="26"/>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D17" s="29">
         <v>1</v>
       </c>
       <c r="E17" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>121</v>
@@ -2866,7 +2881,7 @@
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="26"/>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="D18" s="29">
         <v>1</v>
@@ -2881,22 +2896,20 @@
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="26"/>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D19" s="29">
-        <v>1</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="26"/>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="D20" s="29">
         <v>4</v>
@@ -2909,26 +2922,28 @@
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="26"/>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D21" s="29">
-        <v>4</v>
-      </c>
-      <c r="E21" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="29">
+        <v>2</v>
+      </c>
       <c r="F21" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="26"/>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D22" s="29">
         <v>2</v>
       </c>
       <c r="E22" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>121</v>
@@ -2937,13 +2952,13 @@
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="26"/>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="D23" s="29">
+        <v>3</v>
+      </c>
+      <c r="E23" s="29">
         <v>2</v>
-      </c>
-      <c r="E23" s="29">
-        <v>1</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>121</v>
@@ -2952,13 +2967,13 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="26"/>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D24" s="29">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>121</v>
@@ -2967,7 +2982,7 @@
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="26"/>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="29">
         <v>0.5</v>
@@ -2982,7 +2997,7 @@
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="26"/>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D26" s="29">
         <v>0.5</v>
@@ -2990,54 +3005,54 @@
       <c r="E26" s="29">
         <v>0.5</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="26"/>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="B27" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="B28" s="26"/>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="29">
+        <v>16</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="26"/>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="D29" s="29">
-        <v>16</v>
-      </c>
-      <c r="E29" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="E29" s="29">
+        <v>1</v>
+      </c>
       <c r="F29" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="26"/>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D30" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="29">
         <v>1</v>
@@ -3049,13 +3064,13 @@
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="26"/>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D31" s="29">
         <v>1</v>
       </c>
       <c r="E31" s="29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>121</v>
@@ -3064,10 +3079,10 @@
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="26"/>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D32" s="29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="29">
         <v>0.5</v>
@@ -3079,7 +3094,7 @@
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="26"/>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" s="29">
         <v>0.5</v>
@@ -3094,7 +3109,7 @@
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="26"/>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" s="29">
         <v>0.5</v>
@@ -3109,7 +3124,7 @@
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="26"/>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D35" s="29">
         <v>0.5</v>
@@ -3124,10 +3139,10 @@
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="26"/>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="D36" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E36" s="29">
         <v>0.5</v>
@@ -3139,10 +3154,10 @@
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="26"/>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D37" s="29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="29">
         <v>0.5</v>
@@ -3154,7 +3169,7 @@
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="26"/>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="D38" s="29">
         <v>0.5</v>
@@ -3169,7 +3184,7 @@
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="26"/>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="D39" s="29">
         <v>0.5</v>
@@ -3184,62 +3199,62 @@
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="26"/>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="D40" s="29">
         <v>0.5</v>
       </c>
-      <c r="E40" s="29">
-        <v>0.5</v>
-      </c>
+      <c r="E40" s="29"/>
       <c r="F40" s="29" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="26"/>
-      <c r="C41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29" t="s">
-        <v>129</v>
-      </c>
+      <c r="B41" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="28">
+        <v>1</v>
+      </c>
+      <c r="E42" s="28">
+        <v>1</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="26"/>
       <c r="C43" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="28">
-        <v>1</v>
-      </c>
-      <c r="E43" s="28">
-        <v>1</v>
-      </c>
-      <c r="F43" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="26"/>
       <c r="C44" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E44" s="29">
         <v>0.5</v>
@@ -3251,7 +3266,7 @@
     <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="26"/>
       <c r="C45" s="23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="29">
         <v>1</v>
@@ -3264,39 +3279,39 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="26"/>
-      <c r="C46" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="29">
-        <v>1</v>
-      </c>
-      <c r="E46" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>121</v>
-      </c>
+      <c r="B46" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
+      <c r="B47" s="26"/>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="29">
+        <v>2</v>
+      </c>
+      <c r="E47" s="29">
+        <v>2</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="26"/>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D48" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="29" t="s">
         <v>121</v>
@@ -3305,7 +3320,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B49" s="26"/>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D49" s="29">
         <v>1</v>
@@ -3318,331 +3333,329 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="26"/>
-      <c r="C50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="29">
-        <v>1</v>
-      </c>
-      <c r="E50" s="29">
-        <v>1</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>121</v>
-      </c>
+      <c r="B50" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B52" s="23"/>
-      <c r="C52" s="22" t="s">
-        <v>117</v>
+      <c r="C52" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D52" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E52" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F52" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="23"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="23" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D53" s="29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F53" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="26"/>
-      <c r="C54" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="E54" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>121</v>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="30">
+        <v>2</v>
+      </c>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B55" s="24"/>
-      <c r="C55" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="30">
-        <v>2</v>
-      </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30" t="s">
-        <v>129</v>
-      </c>
+      <c r="B55" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B56" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="29">
+        <v>1</v>
+      </c>
+      <c r="E56" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="25"/>
-      <c r="C57" s="22" t="s">
-        <v>123</v>
+      <c r="B57" s="26"/>
+      <c r="C57" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="D57" s="29">
-        <v>1</v>
-      </c>
-      <c r="E57" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="29" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="35" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B58" s="26"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D58" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E58" s="35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F58" s="35" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="23"/>
-      <c r="C59" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="29">
-        <v>1</v>
-      </c>
-      <c r="E59" s="35">
-        <v>1</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>121</v>
-      </c>
+      <c r="A59" s="19"/>
+      <c r="B59" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60" s="19"/>
-      <c r="B60" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="19"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="28">
+        <v>1</v>
+      </c>
+      <c r="E60" s="28">
+        <v>1</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="22"/>
-      <c r="C61" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="28">
-        <v>1</v>
-      </c>
-      <c r="E61" s="28">
-        <v>1</v>
-      </c>
-      <c r="F61" s="28" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="29">
+        <v>1</v>
+      </c>
+      <c r="E61" s="29">
+        <v>1</v>
+      </c>
+      <c r="F61" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B62" s="23"/>
       <c r="C62" s="23" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="D62" s="29">
         <v>1</v>
       </c>
-      <c r="E62" s="29">
-        <v>1</v>
-      </c>
+      <c r="E62" s="29"/>
       <c r="F62" s="29" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="23"/>
-      <c r="C63" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="29">
-        <v>1</v>
-      </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29" t="s">
-        <v>129</v>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="30">
+        <v>3</v>
+      </c>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B64" s="24"/>
-      <c r="C64" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="30">
+      <c r="B64" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="24"/>
+      <c r="C65" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E65" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67" s="25"/>
+      <c r="C67" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="28">
+        <v>2</v>
+      </c>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68" s="27"/>
+      <c r="C68" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="30">
+        <v>2</v>
+      </c>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="25"/>
+      <c r="C70" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="28">
+        <v>1</v>
+      </c>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B71" s="26"/>
+      <c r="C71" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="29">
+        <v>1</v>
+      </c>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="27"/>
+      <c r="C72" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="30">
+        <v>1</v>
+      </c>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B73" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B74" s="26"/>
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" s="29">
         <v>3</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30" t="s">
+      <c r="E74" s="35"/>
+      <c r="F74" s="35" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="38"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="24"/>
-      <c r="C66" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E66" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="25"/>
-      <c r="C68" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="28">
-        <v>2</v>
-      </c>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B69" s="27"/>
-      <c r="C69" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="30">
-        <v>2</v>
-      </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="25"/>
-      <c r="C71" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D71" s="28">
-        <v>1</v>
-      </c>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="26"/>
-      <c r="C72" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="29">
-        <v>1</v>
-      </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="27"/>
-      <c r="C73" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73" s="30">
-        <v>1</v>
-      </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B74" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="26"/>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D75" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75" s="35"/>
       <c r="F75" s="35" t="s">
@@ -3652,10 +3665,10 @@
     <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="26"/>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="D76" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E76" s="35"/>
       <c r="F76" s="35" t="s">
@@ -3663,66 +3676,66 @@
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B77" s="26"/>
-      <c r="C77" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" s="29">
-        <v>1</v>
-      </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35" t="s">
+      <c r="B77" s="27"/>
+      <c r="C77" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B78" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B79" s="26"/>
+      <c r="C79" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="29">
+        <v>4</v>
+      </c>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B78" s="27"/>
-      <c r="C78" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D78" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36" t="s">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B80" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B81" s="26"/>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="29">
+        <v>1</v>
+      </c>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B79" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B80" s="26"/>
-      <c r="C80" t="s">
-        <v>153</v>
-      </c>
-      <c r="D80" s="29">
-        <v>4</v>
-      </c>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B81" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="26"/>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D82" s="29">
         <v>1</v>
@@ -3735,10 +3748,10 @@
     <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="26"/>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D83" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="35"/>
       <c r="F83" s="35" t="s">
@@ -3748,23 +3761,23 @@
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="26"/>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="D84" s="29">
         <v>2</v>
       </c>
       <c r="E84" s="35"/>
       <c r="F84" s="35" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="26"/>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="D85" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" s="35"/>
       <c r="F85" s="35" t="s">
@@ -3772,44 +3785,44 @@
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B86" s="26"/>
-      <c r="C86" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" s="29">
-        <v>1</v>
-      </c>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35" t="s">
+      <c r="B86" s="27"/>
+      <c r="C86" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="30">
+        <v>1</v>
+      </c>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B87" s="27"/>
-      <c r="C87" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D87" s="30">
-        <v>1</v>
-      </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36" t="s">
+      <c r="B87" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="32"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B88" s="26"/>
+      <c r="C88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="29">
+        <v>1</v>
+      </c>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B88" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="26"/>
       <c r="C89" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D89" s="29">
         <v>1</v>
@@ -3822,7 +3835,7 @@
     <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="26"/>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D90" s="29">
         <v>1</v>
@@ -3835,10 +3848,10 @@
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91" s="26"/>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D91" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E91" s="35"/>
       <c r="F91" s="35" t="s">
@@ -3846,121 +3859,127 @@
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B92" s="26"/>
-      <c r="C92" t="s">
-        <v>101</v>
-      </c>
-      <c r="D92" s="29">
+      <c r="B92" s="27"/>
+      <c r="C92" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="30">
         <v>5</v>
       </c>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35" t="s">
+      <c r="E92" s="36"/>
+      <c r="F92" s="36" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B93" s="27"/>
-      <c r="C93" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93" s="30">
-        <v>5</v>
-      </c>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36" t="s">
-        <v>128</v>
-      </c>
+      <c r="B93" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="32"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B94" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E94" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B95" s="25"/>
-      <c r="C95" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D95" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37" t="s">
-        <v>128</v>
+      <c r="B95" s="26"/>
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E95" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96" s="26"/>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D96" s="29">
         <v>0.5</v>
       </c>
-      <c r="E96" s="35"/>
+      <c r="E96" s="35">
+        <v>0.5</v>
+      </c>
       <c r="F96" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B97" s="27"/>
+      <c r="C97" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" s="30">
+        <v>2</v>
+      </c>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B97" s="26"/>
-      <c r="C97" t="s">
-        <v>106</v>
-      </c>
-      <c r="D97" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35" t="s">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B98" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="32"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B99" s="26"/>
+      <c r="C99" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B98" s="27"/>
-      <c r="C98" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D98" s="30">
-        <v>2</v>
-      </c>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B99" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" s="32"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="26"/>
-      <c r="C100" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D100" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37" t="s">
+      <c r="C100" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="26"/>
       <c r="C101" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D101" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E101" s="35"/>
       <c r="F101" s="35" t="s">
@@ -3968,52 +3987,39 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B102" s="26"/>
-      <c r="C102" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" s="29">
-        <v>1</v>
-      </c>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35" t="s">
+      <c r="B102" s="27"/>
+      <c r="C102" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" s="30">
+        <v>2</v>
+      </c>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B103" s="27"/>
-      <c r="C103" s="24" t="s">
-        <v>113</v>
-      </c>
+      <c r="B103" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" s="24"/>
       <c r="D103" s="30">
+        <v>1</v>
+      </c>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B104" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="38"/>
+      <c r="D104" s="34">
         <v>2</v>
       </c>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B104" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" s="24"/>
-      <c r="D104" s="30">
-        <v>1</v>
-      </c>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B105" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C105" s="38"/>
-      <c r="D105" s="34">
-        <v>2</v>
-      </c>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39" t="s">
+      <c r="E104" s="39"/>
+      <c r="F104" s="39" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4099,26 +4105,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4353,10 +4339,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4375,21 +4393,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC3D139-A893-457E-835B-79F3E25EAEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48F322-352C-40CB-B087-D9148366C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Uedaが往くRE" sheetId="4" r:id="rId1"/>
@@ -2571,9 +2571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2239114-249C-4672-A651-30DF9C3E9413}">
   <dimension ref="A3:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2661,7 +2659,7 @@
       </c>
       <c r="J6" s="21">
         <f ca="1">NETWORKDAYS(J7,J8)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2704,7 +2702,7 @@
       </c>
       <c r="J8" s="44">
         <f ca="1">TODAY()</f>
-        <v>45597</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
@@ -2783,11 +2781,11 @@
       </c>
       <c r="K13" s="31">
         <f ca="1">NETWORKDAYS(J8,J13)</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L13" s="53">
         <f ca="1">($J$4 - $J$5) / K13</f>
-        <v>2.3611111111111112</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
@@ -2812,11 +2810,11 @@
       </c>
       <c r="K14" s="31">
         <f ca="1">NETWORKDAYS(J8,J14)</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L14" s="53">
         <f ca="1">($J$4 - $J$5) / K14</f>
-        <v>1.6346153846153846</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -2841,11 +2839,11 @@
       </c>
       <c r="K15" s="31">
         <f ca="1">NETWORKDAYS(J8,J15)</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" s="53">
         <f ca="1">($J$4 - $J$5) / K15</f>
-        <v>1.3709677419354838</v>
+        <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -4105,6 +4103,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4339,42 +4357,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4393,9 +4379,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48F322-352C-40CB-B087-D9148366C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944609DE-D3BF-4260-9ED7-F2BD1C30FDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="1200" yWindow="2205" windowWidth="21600" windowHeight="13065" firstSheet="2" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Uedaが往くRE" sheetId="4" r:id="rId1"/>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J6" s="21">
         <f ca="1">NETWORKDAYS(J7,J8)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="J8" s="44">
         <f ca="1">TODAY()</f>
-        <v>45601</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
@@ -2781,11 +2781,11 @@
       </c>
       <c r="K13" s="31">
         <f ca="1">NETWORKDAYS(J8,J13)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" s="53">
         <f ca="1">($J$4 - $J$5) / K13</f>
-        <v>2.5</v>
+        <v>2.5757575757575757</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
@@ -2810,11 +2810,11 @@
       </c>
       <c r="K14" s="31">
         <f ca="1">NETWORKDAYS(J8,J14)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="53">
         <f ca="1">($J$4 - $J$5) / K14</f>
-        <v>1.7</v>
+        <v>1.7346938775510203</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="K15" s="31">
         <f ca="1">NETWORKDAYS(J8,J15)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="53">
         <f ca="1">($J$4 - $J$5) / K15</f>
-        <v>1.4166666666666667</v>
+        <v>1.4406779661016949</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -3764,9 +3764,11 @@
       <c r="D84" s="29">
         <v>2</v>
       </c>
-      <c r="E84" s="35"/>
+      <c r="E84" s="35">
+        <v>2</v>
+      </c>
       <c r="F84" s="35" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
@@ -4103,26 +4105,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4357,10 +4339,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4379,21 +4393,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944609DE-D3BF-4260-9ED7-F2BD1C30FDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076FD6F-6769-4CD2-A288-C162DE99CA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2205" windowWidth="21600" windowHeight="13065" firstSheet="2" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Uedaが往くRE" sheetId="4" r:id="rId1"/>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J6" s="21">
         <f ca="1">NETWORKDAYS(J7,J8)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="J8" s="44">
         <f ca="1">TODAY()</f>
-        <v>45602</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
@@ -2781,11 +2781,11 @@
       </c>
       <c r="K13" s="31">
         <f ca="1">NETWORKDAYS(J8,J13)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="53">
         <f ca="1">($J$4 - $J$5) / K13</f>
-        <v>2.5757575757575757</v>
+        <v>2.65625</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
@@ -2810,11 +2810,11 @@
       </c>
       <c r="K14" s="31">
         <f ca="1">NETWORKDAYS(J8,J14)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="53">
         <f ca="1">($J$4 - $J$5) / K14</f>
-        <v>1.7346938775510203</v>
+        <v>1.7708333333333333</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="K15" s="31">
         <f ca="1">NETWORKDAYS(J8,J15)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="53">
         <f ca="1">($J$4 - $J$5) / K15</f>
-        <v>1.4406779661016949</v>
+        <v>1.4655172413793103</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -4105,6 +4105,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4339,42 +4359,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4393,9 +4381,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/仕様書/Uedaが如くRE_スケジュール.xlsx
+++ b/仕様書/Uedaが如くRE_スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076FD6F-6769-4CD2-A288-C162DE99CA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20951B17-DE41-47A9-AFB1-67209EFCD795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="765" yWindow="-15750" windowWidth="23235" windowHeight="15090" firstSheet="2" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Uedaが往くRE" sheetId="4" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
         <v>139</v>
       </c>
       <c r="J5" s="33">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J6" s="21">
         <f ca="1">NETWORKDAYS(J7,J8)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="J8" s="44">
         <f ca="1">TODAY()</f>
-        <v>45603</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
@@ -2781,11 +2781,11 @@
       </c>
       <c r="K13" s="31">
         <f ca="1">NETWORKDAYS(J8,J13)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" s="53">
         <f ca="1">($J$4 - $J$5) / K13</f>
-        <v>2.65625</v>
+        <v>2.5161290322580645</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
@@ -2810,11 +2810,11 @@
       </c>
       <c r="K14" s="31">
         <f ca="1">NETWORKDAYS(J8,J14)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="53">
         <f ca="1">($J$4 - $J$5) / K14</f>
-        <v>1.7708333333333333</v>
+        <v>1.6595744680851063</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="K15" s="31">
         <f ca="1">NETWORKDAYS(J8,J15)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="53">
         <f ca="1">($J$4 - $J$5) / K15</f>
-        <v>1.4655172413793103</v>
+        <v>1.368421052631579</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -3202,9 +3202,11 @@
       <c r="D40" s="29">
         <v>0.5</v>
       </c>
-      <c r="E40" s="29"/>
+      <c r="E40" s="29">
+        <v>0.5</v>
+      </c>
       <c r="F40" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
@@ -3642,9 +3644,11 @@
       <c r="D74" s="29">
         <v>3</v>
       </c>
-      <c r="E74" s="35"/>
+      <c r="E74" s="35">
+        <v>2</v>
+      </c>
       <c r="F74" s="35" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
@@ -4105,26 +4109,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4359,10 +4343,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4381,21 +4397,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>